--- a/raw_ts_data/fd/fd12_ts2.xlsx
+++ b/raw_ts_data/fd/fd12_ts2.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ncw02\Downloads\IGEA\raw_ts_data\fd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD88E9E-148B-4443-95E5-91D8C52E36B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9004E96-A502-471E-945B-0F2453CA0A24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E68C062C-7D11-714A-B9EB-02BD676A21BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Total Station 2 (Grizz)" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Total Station 2 (Grizz)'!$A$1:$AC$1381</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -213,9 +216,6 @@
     <t>discard</t>
   </si>
   <si>
-    <t>TP9</t>
-  </si>
-  <si>
     <t>TP17</t>
   </si>
   <si>
@@ -282,34 +282,37 @@
     <t>DISCARD</t>
   </si>
   <si>
-    <t>TP6</t>
-  </si>
-  <si>
     <t>LEVELED</t>
   </si>
   <si>
     <t>PointID</t>
   </si>
   <si>
-    <t>EP7</t>
-  </si>
-  <si>
     <t>EP10</t>
-  </si>
-  <si>
-    <t>EP3</t>
-  </si>
-  <si>
-    <t>EP1</t>
   </si>
   <si>
     <t>EP13</t>
   </si>
   <si>
-    <t>EP8</t>
+    <t>EP12</t>
   </si>
   <si>
-    <t>EP12</t>
+    <t>EP01</t>
+  </si>
+  <si>
+    <t>EP03</t>
+  </si>
+  <si>
+    <t>EP07</t>
+  </si>
+  <si>
+    <t>EP08</t>
+  </si>
+  <si>
+    <t>TP06</t>
+  </si>
+  <si>
+    <t>TP09</t>
   </si>
 </sst>
 </file>
@@ -736,7 +739,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1:B1048576"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.21875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -753,7 +756,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -2300,7 +2303,7 @@
     </row>
     <row r="85" spans="1:29" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B85" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C85" s="2">
         <v>5</v>
@@ -2317,7 +2320,7 @@
     </row>
     <row r="86" spans="1:29" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B86" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C86" s="2">
         <v>5</v>
@@ -2334,7 +2337,7 @@
     </row>
     <row r="87" spans="1:29" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B87" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C87" s="2">
         <v>5</v>
@@ -2351,7 +2354,7 @@
     </row>
     <row r="88" spans="1:29" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B88" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C88" s="2">
         <v>5</v>
@@ -2368,7 +2371,7 @@
     </row>
     <row r="89" spans="1:29" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B89" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C89" s="2">
         <v>5</v>
@@ -2385,7 +2388,7 @@
     </row>
     <row r="90" spans="1:29" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B90" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C90" s="2">
         <v>5</v>
@@ -2402,7 +2405,7 @@
     </row>
     <row r="91" spans="1:29" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B91" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C91" s="2">
         <v>5</v>
@@ -2419,7 +2422,7 @@
     </row>
     <row r="92" spans="1:29" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B92" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C92" s="2">
         <v>5</v>
@@ -2436,7 +2439,7 @@
     </row>
     <row r="93" spans="1:29" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B93" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C93" s="2">
         <v>4</v>
@@ -2453,7 +2456,7 @@
     </row>
     <row r="94" spans="1:29" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B94" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C94" s="2">
         <v>4</v>
@@ -2470,7 +2473,7 @@
     </row>
     <row r="95" spans="1:29" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B95" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C95" s="2">
         <v>4</v>
@@ -2487,7 +2490,7 @@
     </row>
     <row r="96" spans="1:29" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B96" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C96" s="2">
         <v>4</v>
@@ -2504,7 +2507,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B97" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C97" s="2">
         <v>4</v>
@@ -2521,7 +2524,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B98" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C98" s="2">
         <v>4</v>
@@ -2541,7 +2544,7 @@
     </row>
     <row r="99" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B99" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C99" s="2">
         <v>4</v>
@@ -2558,7 +2561,7 @@
     </row>
     <row r="100" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B100" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C100" s="2">
         <v>4</v>
@@ -2575,7 +2578,7 @@
     </row>
     <row r="101" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B101" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C101" s="2">
         <v>3</v>
@@ -2592,7 +2595,7 @@
     </row>
     <row r="102" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B102" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C102" s="2">
         <v>3</v>
@@ -2612,7 +2615,7 @@
     </row>
     <row r="103" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B103" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C103" s="2">
         <v>3</v>
@@ -2629,7 +2632,7 @@
     </row>
     <row r="104" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B104" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C104" s="2">
         <v>3</v>
@@ -2646,7 +2649,7 @@
     </row>
     <row r="105" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B105" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C105" s="2">
         <v>3</v>
@@ -2663,7 +2666,7 @@
     </row>
     <row r="106" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B106" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C106" s="2">
         <v>3</v>
@@ -2680,7 +2683,7 @@
     </row>
     <row r="107" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B107" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C107" s="2">
         <v>3</v>
@@ -2697,7 +2700,7 @@
     </row>
     <row r="108" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B108" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C108" s="2">
         <v>3</v>
@@ -2714,7 +2717,7 @@
     </row>
     <row r="109" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B109" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C109" s="2">
         <v>2</v>
@@ -2734,7 +2737,7 @@
     </row>
     <row r="110" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B110" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C110" s="2">
         <v>2</v>
@@ -2752,7 +2755,7 @@
     </row>
     <row r="111" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B111" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C111" s="2">
         <v>2</v>
@@ -2769,7 +2772,7 @@
     </row>
     <row r="112" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B112" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C112" s="2">
         <v>2</v>
@@ -2786,7 +2789,7 @@
     </row>
     <row r="113" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B113" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C113" s="2">
         <v>2</v>
@@ -2803,7 +2806,7 @@
     </row>
     <row r="114" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B114" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C114" s="2">
         <v>2</v>
@@ -2820,7 +2823,7 @@
     </row>
     <row r="115" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B115" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C115" s="2">
         <v>2</v>
@@ -2837,7 +2840,7 @@
     </row>
     <row r="116" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B116" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C116" s="2">
         <v>2</v>
@@ -2854,7 +2857,7 @@
     </row>
     <row r="117" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B117" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C117" s="2">
         <v>1</v>
@@ -2871,7 +2874,7 @@
     </row>
     <row r="118" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B118" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C118" s="2">
         <v>1</v>
@@ -2888,7 +2891,7 @@
     </row>
     <row r="119" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B119" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C119" s="2">
         <v>1</v>
@@ -2905,7 +2908,7 @@
     </row>
     <row r="120" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B120" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C120" s="2">
         <v>1</v>
@@ -2922,7 +2925,7 @@
     </row>
     <row r="121" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B121" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C121" s="2">
         <v>1</v>
@@ -2939,7 +2942,7 @@
     </row>
     <row r="122" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B122" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C122" s="2">
         <v>1</v>
@@ -2956,7 +2959,7 @@
     </row>
     <row r="123" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B123" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C123" s="2">
         <v>1</v>
@@ -2973,7 +2976,7 @@
     </row>
     <row r="124" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B124" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C124" s="2">
         <v>1</v>
@@ -2990,7 +2993,7 @@
     </row>
     <row r="125" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B125" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C125" s="2">
         <v>10</v>
@@ -3010,7 +3013,7 @@
     </row>
     <row r="126" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B126" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C126" s="2">
         <v>10</v>
@@ -3027,7 +3030,7 @@
     </row>
     <row r="127" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B127" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C127" s="2">
         <v>10</v>
@@ -3044,7 +3047,7 @@
     </row>
     <row r="128" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B128" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C128" s="2">
         <v>10</v>
@@ -3061,7 +3064,7 @@
     </row>
     <row r="129" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B129" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C129" s="2">
         <v>10</v>
@@ -3078,7 +3081,7 @@
     </row>
     <row r="130" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B130" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C130" s="2">
         <v>10</v>
@@ -3095,7 +3098,7 @@
     </row>
     <row r="131" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B131" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C131" s="2">
         <v>10</v>
@@ -3112,7 +3115,7 @@
     </row>
     <row r="132" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B132" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C132" s="2">
         <v>10</v>
@@ -3129,7 +3132,7 @@
     </row>
     <row r="133" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B133" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C133" s="2">
         <v>9</v>
@@ -3146,7 +3149,7 @@
     </row>
     <row r="134" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B134" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C134" s="2">
         <v>9</v>
@@ -3163,7 +3166,7 @@
     </row>
     <row r="135" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B135" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C135" s="2">
         <v>9</v>
@@ -3180,7 +3183,7 @@
     </row>
     <row r="136" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B136" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C136" s="2">
         <v>9</v>
@@ -3197,7 +3200,7 @@
     </row>
     <row r="137" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B137" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C137" s="2">
         <v>9</v>
@@ -3214,7 +3217,7 @@
     </row>
     <row r="138" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B138" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C138" s="2">
         <v>9</v>
@@ -3231,7 +3234,7 @@
     </row>
     <row r="139" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B139" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C139" s="2">
         <v>9</v>
@@ -3248,7 +3251,7 @@
     </row>
     <row r="140" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B140" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C140" s="2">
         <v>9</v>
@@ -3265,7 +3268,7 @@
     </row>
     <row r="141" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B141" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C141" s="2">
         <v>8</v>
@@ -3282,7 +3285,7 @@
     </row>
     <row r="142" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B142" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C142" s="2">
         <v>8</v>
@@ -3299,7 +3302,7 @@
     </row>
     <row r="143" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B143" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C143" s="2">
         <v>8</v>
@@ -3316,7 +3319,7 @@
     </row>
     <row r="144" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B144" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C144" s="2">
         <v>8</v>
@@ -3333,7 +3336,7 @@
     </row>
     <row r="145" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B145" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C145" s="2">
         <v>8</v>
@@ -3350,7 +3353,7 @@
     </row>
     <row r="146" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B146" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C146" s="2">
         <v>8</v>
@@ -3367,7 +3370,7 @@
     </row>
     <row r="147" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B147" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C147" s="2">
         <v>8</v>
@@ -3384,7 +3387,7 @@
     </row>
     <row r="148" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B148" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C148" s="2">
         <v>8</v>
@@ -3401,7 +3404,7 @@
     </row>
     <row r="149" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B149" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C149" s="2">
         <v>7</v>
@@ -3418,7 +3421,7 @@
     </row>
     <row r="150" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B150" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C150" s="2">
         <v>7</v>
@@ -3435,7 +3438,7 @@
     </row>
     <row r="151" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B151" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C151" s="2">
         <v>7</v>
@@ -3452,7 +3455,7 @@
     </row>
     <row r="152" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B152" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C152" s="2">
         <v>7</v>
@@ -3469,7 +3472,7 @@
     </row>
     <row r="153" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B153" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C153" s="2">
         <v>7</v>
@@ -3486,7 +3489,7 @@
     </row>
     <row r="154" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B154" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C154" s="2">
         <v>7</v>
@@ -3503,7 +3506,7 @@
     </row>
     <row r="155" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B155" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C155" s="2">
         <v>7</v>
@@ -3520,7 +3523,7 @@
     </row>
     <row r="156" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B156" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C156" s="2">
         <v>7</v>
@@ -3537,7 +3540,7 @@
     </row>
     <row r="157" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B157" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C157" s="2">
         <v>6</v>
@@ -3554,7 +3557,7 @@
     </row>
     <row r="158" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B158" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C158" s="2">
         <v>6</v>
@@ -3571,7 +3574,7 @@
     </row>
     <row r="159" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B159" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C159" s="2">
         <v>6</v>
@@ -3588,7 +3591,7 @@
     </row>
     <row r="160" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B160" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C160" s="2">
         <v>6</v>
@@ -3605,7 +3608,7 @@
     </row>
     <row r="161" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B161" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C161" s="2">
         <v>6</v>
@@ -3622,7 +3625,7 @@
     </row>
     <row r="162" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B162" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C162" s="2">
         <v>6</v>
@@ -3639,7 +3642,7 @@
     </row>
     <row r="163" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B163" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C163" s="2">
         <v>6</v>
@@ -3656,7 +3659,7 @@
     </row>
     <row r="164" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B164" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C164" s="2">
         <v>6</v>
@@ -3673,7 +3676,7 @@
     </row>
     <row r="165" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B165" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C165" s="2">
         <v>5</v>
@@ -3690,7 +3693,7 @@
     </row>
     <row r="166" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B166" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C166" s="2">
         <v>5</v>
@@ -3707,7 +3710,7 @@
     </row>
     <row r="167" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B167" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C167" s="2">
         <v>5</v>
@@ -3724,7 +3727,7 @@
     </row>
     <row r="168" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B168" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C168" s="2">
         <v>5</v>
@@ -3741,7 +3744,7 @@
     </row>
     <row r="169" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B169" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C169" s="2">
         <v>5</v>
@@ -3758,7 +3761,7 @@
     </row>
     <row r="170" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B170" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C170" s="2">
         <v>5</v>
@@ -3775,7 +3778,7 @@
     </row>
     <row r="171" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B171" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C171" s="2">
         <v>5</v>
@@ -3792,7 +3795,7 @@
     </row>
     <row r="172" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B172" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C172" s="2">
         <v>5</v>
@@ -3809,7 +3812,7 @@
     </row>
     <row r="173" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B173" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C173" s="2">
         <v>4</v>
@@ -3826,7 +3829,7 @@
     </row>
     <row r="174" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B174" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C174" s="2">
         <v>4</v>
@@ -3843,7 +3846,7 @@
     </row>
     <row r="175" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B175" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C175" s="2">
         <v>4</v>
@@ -3860,7 +3863,7 @@
     </row>
     <row r="176" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B176" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C176" s="2">
         <v>4</v>
@@ -3877,7 +3880,7 @@
     </row>
     <row r="177" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B177" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C177" s="2">
         <v>4</v>
@@ -3894,7 +3897,7 @@
     </row>
     <row r="178" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B178" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C178" s="2">
         <v>4</v>
@@ -3911,7 +3914,7 @@
     </row>
     <row r="179" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B179" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C179" s="2">
         <v>4</v>
@@ -3928,7 +3931,7 @@
     </row>
     <row r="180" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B180" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C180" s="2">
         <v>4</v>
@@ -3945,7 +3948,7 @@
     </row>
     <row r="181" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B181" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C181" s="2">
         <v>3</v>
@@ -3962,7 +3965,7 @@
     </row>
     <row r="182" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B182" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C182" s="2">
         <v>3</v>
@@ -3979,7 +3982,7 @@
     </row>
     <row r="183" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B183" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C183" s="2">
         <v>3</v>
@@ -3996,7 +3999,7 @@
     </row>
     <row r="184" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B184" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C184" s="2">
         <v>3</v>
@@ -4013,7 +4016,7 @@
     </row>
     <row r="185" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B185" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C185" s="2">
         <v>3</v>
@@ -4030,7 +4033,7 @@
     </row>
     <row r="186" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B186" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C186" s="2">
         <v>3</v>
@@ -4047,7 +4050,7 @@
     </row>
     <row r="187" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B187" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C187" s="2">
         <v>3</v>
@@ -4064,7 +4067,7 @@
     </row>
     <row r="188" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B188" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C188" s="2">
         <v>3</v>
@@ -4081,7 +4084,7 @@
     </row>
     <row r="189" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B189" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C189" s="2">
         <v>2</v>
@@ -4098,7 +4101,7 @@
     </row>
     <row r="190" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B190" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C190" s="2">
         <v>2</v>
@@ -4115,7 +4118,7 @@
     </row>
     <row r="191" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B191" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C191" s="2">
         <v>2</v>
@@ -4132,7 +4135,7 @@
     </row>
     <row r="192" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B192" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C192" s="2">
         <v>2</v>
@@ -4149,7 +4152,7 @@
     </row>
     <row r="193" spans="1:29" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B193" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C193" s="2">
         <v>2</v>
@@ -4166,7 +4169,7 @@
     </row>
     <row r="194" spans="1:29" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B194" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C194" s="2">
         <v>2</v>
@@ -4183,7 +4186,7 @@
     </row>
     <row r="195" spans="1:29" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B195" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C195" s="2">
         <v>2</v>
@@ -4200,7 +4203,7 @@
     </row>
     <row r="196" spans="1:29" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B196" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C196" s="2">
         <v>2</v>
@@ -4217,7 +4220,7 @@
     </row>
     <row r="197" spans="1:29" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B197" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C197" s="2">
         <v>1</v>
@@ -4234,7 +4237,7 @@
     </row>
     <row r="198" spans="1:29" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B198" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C198" s="2">
         <v>1</v>
@@ -4251,7 +4254,7 @@
     </row>
     <row r="199" spans="1:29" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B199" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C199" s="2">
         <v>1</v>
@@ -4268,7 +4271,7 @@
     </row>
     <row r="200" spans="1:29" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B200" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C200" s="2">
         <v>1</v>
@@ -4285,7 +4288,7 @@
     </row>
     <row r="201" spans="1:29" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B201" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C201" s="2">
         <v>1</v>
@@ -4302,7 +4305,7 @@
     </row>
     <row r="202" spans="1:29" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B202" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C202" s="2">
         <v>1</v>
@@ -4319,7 +4322,7 @@
     </row>
     <row r="203" spans="1:29" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B203" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C203" s="2">
         <v>1</v>
@@ -4336,7 +4339,7 @@
     </row>
     <row r="204" spans="1:29" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B204" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C204" s="2">
         <v>1</v>
@@ -4354,7 +4357,7 @@
     <row r="205" spans="1:29" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A205" s="6"/>
       <c r="B205" s="6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C205" s="6"/>
       <c r="D205" s="6">
@@ -4392,7 +4395,7 @@
     </row>
     <row r="206" spans="1:29" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B206" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C206" s="2">
         <v>6</v>
@@ -4409,7 +4412,7 @@
     </row>
     <row r="207" spans="1:29" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B207" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C207" s="2">
         <v>6</v>
@@ -4426,7 +4429,7 @@
     </row>
     <row r="208" spans="1:29" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B208" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C208" s="2">
         <v>6</v>
@@ -4443,7 +4446,7 @@
     </row>
     <row r="209" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B209" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C209" s="2">
         <v>6</v>
@@ -4460,7 +4463,7 @@
     </row>
     <row r="210" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B210" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C210" s="2">
         <v>6</v>
@@ -4477,7 +4480,7 @@
     </row>
     <row r="211" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B211" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C211" s="2">
         <v>6</v>
@@ -4494,7 +4497,7 @@
     </row>
     <row r="212" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B212" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C212" s="2">
         <v>6</v>
@@ -4511,7 +4514,7 @@
     </row>
     <row r="213" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B213" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C213" s="2">
         <v>6</v>
@@ -4528,7 +4531,7 @@
     </row>
     <row r="214" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B214" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C214" s="2">
         <v>7</v>
@@ -4545,7 +4548,7 @@
     </row>
     <row r="215" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B215" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C215" s="2">
         <v>7</v>
@@ -4562,7 +4565,7 @@
     </row>
     <row r="216" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B216" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C216" s="2">
         <v>7</v>
@@ -4579,7 +4582,7 @@
     </row>
     <row r="217" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B217" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C217" s="2">
         <v>7</v>
@@ -4596,7 +4599,7 @@
     </row>
     <row r="218" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B218" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C218" s="2">
         <v>7</v>
@@ -4613,7 +4616,7 @@
     </row>
     <row r="219" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B219" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C219" s="2">
         <v>7</v>
@@ -4630,7 +4633,7 @@
     </row>
     <row r="220" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B220" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C220" s="2">
         <v>7</v>
@@ -4647,7 +4650,7 @@
     </row>
     <row r="221" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B221" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C221" s="2">
         <v>7</v>
@@ -4664,7 +4667,7 @@
     </row>
     <row r="222" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B222" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C222" s="2">
         <v>8</v>
@@ -4681,7 +4684,7 @@
     </row>
     <row r="223" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B223" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C223" s="2">
         <v>8</v>
@@ -4701,7 +4704,7 @@
     </row>
     <row r="224" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B224" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C224" s="2">
         <v>8</v>
@@ -4718,7 +4721,7 @@
     </row>
     <row r="225" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B225" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C225" s="2">
         <v>8</v>
@@ -4735,7 +4738,7 @@
     </row>
     <row r="226" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B226" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C226" s="2">
         <v>8</v>
@@ -4752,7 +4755,7 @@
     </row>
     <row r="227" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B227" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C227" s="2">
         <v>8</v>
@@ -4769,7 +4772,7 @@
     </row>
     <row r="228" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B228" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C228" s="2">
         <v>8</v>
@@ -4786,7 +4789,7 @@
     </row>
     <row r="229" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B229" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C229" s="2">
         <v>8</v>
@@ -4803,7 +4806,7 @@
     </row>
     <row r="230" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B230" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C230" s="2">
         <v>9</v>
@@ -4820,7 +4823,7 @@
     </row>
     <row r="231" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B231" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C231" s="2">
         <v>9</v>
@@ -4837,7 +4840,7 @@
     </row>
     <row r="232" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B232" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C232" s="2">
         <v>9</v>
@@ -4854,7 +4857,7 @@
     </row>
     <row r="233" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B233" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C233" s="2">
         <v>9</v>
@@ -4871,7 +4874,7 @@
     </row>
     <row r="234" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B234" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C234" s="2">
         <v>9</v>
@@ -4888,7 +4891,7 @@
     </row>
     <row r="235" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B235" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C235" s="2">
         <v>9</v>
@@ -4905,7 +4908,7 @@
     </row>
     <row r="236" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B236" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C236" s="2">
         <v>9</v>
@@ -4922,7 +4925,7 @@
     </row>
     <row r="237" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B237" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C237" s="2">
         <v>9</v>
@@ -4939,7 +4942,7 @@
     </row>
     <row r="238" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B238" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C238" s="2">
         <v>10</v>
@@ -4956,7 +4959,7 @@
     </row>
     <row r="239" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B239" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C239" s="2">
         <v>10</v>
@@ -4976,7 +4979,7 @@
     </row>
     <row r="240" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B240" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C240" s="2">
         <v>10</v>
@@ -4993,7 +4996,7 @@
     </row>
     <row r="241" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B241" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C241" s="2">
         <v>10</v>
@@ -5010,7 +5013,7 @@
     </row>
     <row r="242" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B242" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C242" s="2">
         <v>10</v>
@@ -5027,7 +5030,7 @@
     </row>
     <row r="243" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B243" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C243" s="2">
         <v>10</v>
@@ -5044,7 +5047,7 @@
     </row>
     <row r="244" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B244" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C244" s="2">
         <v>10</v>
@@ -5061,7 +5064,7 @@
     </row>
     <row r="245" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B245" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C245" s="2">
         <v>10</v>
@@ -5078,7 +5081,7 @@
     </row>
     <row r="246" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B246" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C246" s="2">
         <v>5</v>
@@ -5095,7 +5098,7 @@
     </row>
     <row r="247" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B247" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C247" s="2">
         <v>5</v>
@@ -5112,7 +5115,7 @@
     </row>
     <row r="248" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B248" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C248" s="2">
         <v>5</v>
@@ -5129,7 +5132,7 @@
     </row>
     <row r="249" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B249" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C249" s="2">
         <v>5</v>
@@ -5146,7 +5149,7 @@
     </row>
     <row r="250" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B250" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C250" s="2">
         <v>5</v>
@@ -5163,7 +5166,7 @@
     </row>
     <row r="251" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B251" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C251" s="2">
         <v>5</v>
@@ -5180,7 +5183,7 @@
     </row>
     <row r="252" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B252" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C252" s="2">
         <v>5</v>
@@ -5197,7 +5200,7 @@
     </row>
     <row r="253" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B253" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C253" s="2">
         <v>5</v>
@@ -5214,7 +5217,7 @@
     </row>
     <row r="254" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B254" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C254" s="2">
         <v>6</v>
@@ -5231,7 +5234,7 @@
     </row>
     <row r="255" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B255" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C255" s="2">
         <v>6</v>
@@ -5248,7 +5251,7 @@
     </row>
     <row r="256" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B256" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C256" s="2">
         <v>6</v>
@@ -5265,7 +5268,7 @@
     </row>
     <row r="257" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B257" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C257" s="2">
         <v>6</v>
@@ -5282,7 +5285,7 @@
     </row>
     <row r="258" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B258" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C258" s="2">
         <v>6</v>
@@ -5299,7 +5302,7 @@
     </row>
     <row r="259" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B259" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C259" s="2">
         <v>6</v>
@@ -5316,7 +5319,7 @@
     </row>
     <row r="260" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B260" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C260" s="2">
         <v>6</v>
@@ -5333,7 +5336,7 @@
     </row>
     <row r="261" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B261" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C261" s="2">
         <v>6</v>
@@ -5350,7 +5353,7 @@
     </row>
     <row r="262" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B262" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C262" s="2">
         <v>3</v>
@@ -5367,7 +5370,7 @@
     </row>
     <row r="263" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B263" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C263" s="2">
         <v>3</v>
@@ -5384,7 +5387,7 @@
     </row>
     <row r="264" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B264" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C264" s="2">
         <v>3</v>
@@ -5401,7 +5404,7 @@
     </row>
     <row r="265" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B265" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C265" s="2">
         <v>3</v>
@@ -5418,7 +5421,7 @@
     </row>
     <row r="266" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B266" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C266" s="2">
         <v>3</v>
@@ -5435,7 +5438,7 @@
     </row>
     <row r="267" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B267" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C267" s="2">
         <v>3</v>
@@ -5452,7 +5455,7 @@
     </row>
     <row r="268" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B268" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C268" s="2">
         <v>3</v>
@@ -5469,7 +5472,7 @@
     </row>
     <row r="269" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B269" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C269" s="2">
         <v>3</v>
@@ -5486,7 +5489,7 @@
     </row>
     <row r="270" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B270" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C270" s="2">
         <v>2</v>
@@ -5503,7 +5506,7 @@
     </row>
     <row r="271" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B271" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C271" s="2">
         <v>2</v>
@@ -5520,7 +5523,7 @@
     </row>
     <row r="272" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B272" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C272" s="2">
         <v>2</v>
@@ -5537,7 +5540,7 @@
     </row>
     <row r="273" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B273" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C273" s="2">
         <v>2</v>
@@ -5554,7 +5557,7 @@
     </row>
     <row r="274" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B274" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C274" s="2">
         <v>2</v>
@@ -5571,7 +5574,7 @@
     </row>
     <row r="275" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B275" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C275" s="2">
         <v>2</v>
@@ -5591,7 +5594,7 @@
     </row>
     <row r="276" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B276" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C276" s="2">
         <v>2</v>
@@ -5608,7 +5611,7 @@
     </row>
     <row r="277" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B277" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C277" s="2">
         <v>2</v>
@@ -5625,7 +5628,7 @@
     </row>
     <row r="278" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B278" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C278" s="2">
         <v>1</v>
@@ -5642,7 +5645,7 @@
     </row>
     <row r="279" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B279" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C279" s="2">
         <v>1</v>
@@ -5659,7 +5662,7 @@
     </row>
     <row r="280" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B280" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C280" s="2">
         <v>1</v>
@@ -5676,7 +5679,7 @@
     </row>
     <row r="281" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B281" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C281" s="2">
         <v>1</v>
@@ -5693,7 +5696,7 @@
     </row>
     <row r="282" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B282" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C282" s="2">
         <v>1</v>
@@ -5710,7 +5713,7 @@
     </row>
     <row r="283" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B283" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C283" s="2">
         <v>1</v>
@@ -5727,7 +5730,7 @@
     </row>
     <row r="284" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B284" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C284" s="2">
         <v>1</v>
@@ -5744,7 +5747,7 @@
     </row>
     <row r="285" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B285" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C285" s="2">
         <v>1</v>
@@ -5761,7 +5764,7 @@
     </row>
     <row r="286" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B286" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C286" s="2">
         <v>1</v>
@@ -5778,7 +5781,7 @@
     </row>
     <row r="287" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B287" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C287" s="2">
         <v>1</v>
@@ -5795,7 +5798,7 @@
     </row>
     <row r="288" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B288" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C288" s="2">
         <v>1</v>
@@ -5812,7 +5815,7 @@
     </row>
     <row r="289" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B289" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C289" s="2">
         <v>1</v>
@@ -5829,7 +5832,7 @@
     </row>
     <row r="290" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B290" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C290" s="2">
         <v>1</v>
@@ -5846,7 +5849,7 @@
     </row>
     <row r="291" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B291" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C291" s="2">
         <v>1</v>
@@ -5863,7 +5866,7 @@
     </row>
     <row r="292" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B292" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C292" s="2">
         <v>2</v>
@@ -5880,7 +5883,7 @@
     </row>
     <row r="293" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B293" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C293" s="2">
         <v>2</v>
@@ -5897,7 +5900,7 @@
     </row>
     <row r="294" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B294" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C294" s="2">
         <v>2</v>
@@ -5914,7 +5917,7 @@
     </row>
     <row r="295" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B295" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C295" s="2">
         <v>2</v>
@@ -5931,7 +5934,7 @@
     </row>
     <row r="296" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B296" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C296" s="2">
         <v>2</v>
@@ -5948,7 +5951,7 @@
     </row>
     <row r="297" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B297" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C297" s="2">
         <v>2</v>
@@ -5965,7 +5968,7 @@
     </row>
     <row r="298" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B298" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C298" s="2">
         <v>3</v>
@@ -5982,7 +5985,7 @@
     </row>
     <row r="299" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B299" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C299" s="2">
         <v>3</v>
@@ -5999,7 +6002,7 @@
     </row>
     <row r="300" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B300" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C300" s="2">
         <v>3</v>
@@ -6016,7 +6019,7 @@
     </row>
     <row r="301" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B301" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C301" s="2">
         <v>3</v>
@@ -6033,7 +6036,7 @@
     </row>
     <row r="302" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B302" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C302" s="2">
         <v>3</v>
@@ -6050,7 +6053,7 @@
     </row>
     <row r="303" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B303" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C303" s="2">
         <v>3</v>
@@ -6067,7 +6070,7 @@
     </row>
     <row r="304" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B304" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C304" s="2">
         <v>4</v>
@@ -6084,7 +6087,7 @@
     </row>
     <row r="305" spans="1:29" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B305" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C305" s="2">
         <v>4</v>
@@ -6101,7 +6104,7 @@
     </row>
     <row r="306" spans="1:29" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B306" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C306" s="2">
         <v>4</v>
@@ -6118,7 +6121,7 @@
     </row>
     <row r="307" spans="1:29" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B307" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C307" s="2">
         <v>4</v>
@@ -6135,7 +6138,7 @@
     </row>
     <row r="308" spans="1:29" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B308" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C308" s="2">
         <v>4</v>
@@ -6152,7 +6155,7 @@
     </row>
     <row r="309" spans="1:29" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B309" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C309" s="2">
         <v>4</v>
@@ -6169,7 +6172,7 @@
     </row>
     <row r="310" spans="1:29" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B310" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C310" s="2">
         <v>5</v>
@@ -6186,7 +6189,7 @@
     </row>
     <row r="311" spans="1:29" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B311" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C311" s="2">
         <v>5</v>
@@ -6203,7 +6206,7 @@
     </row>
     <row r="312" spans="1:29" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B312" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C312" s="2">
         <v>5</v>
@@ -6220,7 +6223,7 @@
     </row>
     <row r="313" spans="1:29" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B313" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C313" s="2">
         <v>5</v>
@@ -6237,7 +6240,7 @@
     </row>
     <row r="314" spans="1:29" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B314" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C314" s="2">
         <v>5</v>
@@ -6255,7 +6258,7 @@
     <row r="315" spans="1:29" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A315" s="6"/>
       <c r="B315" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C315" s="6">
         <v>5</v>
@@ -10699,7 +10702,7 @@
     </row>
     <row r="571" spans="1:29" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B571" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C571" s="2">
         <v>1</v>
@@ -10716,7 +10719,7 @@
     </row>
     <row r="572" spans="1:29" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B572" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C572" s="2">
         <v>1</v>
@@ -10733,7 +10736,7 @@
     </row>
     <row r="573" spans="1:29" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B573" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C573" s="2">
         <v>1</v>
@@ -10750,7 +10753,7 @@
     </row>
     <row r="574" spans="1:29" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B574" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C574" s="2">
         <v>1</v>
@@ -10767,7 +10770,7 @@
     </row>
     <row r="575" spans="1:29" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B575" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C575" s="2">
         <v>1</v>
@@ -10784,7 +10787,7 @@
     </row>
     <row r="576" spans="1:29" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B576" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C576" s="2">
         <v>1</v>
@@ -10801,7 +10804,7 @@
     </row>
     <row r="577" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B577" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C577" s="2">
         <v>1</v>
@@ -10818,7 +10821,7 @@
     </row>
     <row r="578" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B578" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C578" s="2">
         <v>1</v>
@@ -10835,7 +10838,7 @@
     </row>
     <row r="579" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B579" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C579" s="2">
         <v>2</v>
@@ -10852,7 +10855,7 @@
     </row>
     <row r="580" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B580" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C580" s="2">
         <v>2</v>
@@ -10869,7 +10872,7 @@
     </row>
     <row r="581" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B581" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C581" s="2">
         <v>2</v>
@@ -10886,7 +10889,7 @@
     </row>
     <row r="582" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B582" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C582" s="2">
         <v>2</v>
@@ -10903,7 +10906,7 @@
     </row>
     <row r="583" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B583" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C583" s="2">
         <v>2</v>
@@ -10920,7 +10923,7 @@
     </row>
     <row r="584" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B584" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C584" s="2">
         <v>2</v>
@@ -10937,7 +10940,7 @@
     </row>
     <row r="585" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B585" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C585" s="2">
         <v>2</v>
@@ -10954,7 +10957,7 @@
     </row>
     <row r="586" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B586" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C586" s="2">
         <v>2</v>
@@ -10971,7 +10974,7 @@
     </row>
     <row r="587" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B587" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C587" s="2">
         <v>3</v>
@@ -10988,7 +10991,7 @@
     </row>
     <row r="588" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B588" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C588" s="2">
         <v>3</v>
@@ -11005,7 +11008,7 @@
     </row>
     <row r="589" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B589" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C589" s="2">
         <v>3</v>
@@ -11022,7 +11025,7 @@
     </row>
     <row r="590" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B590" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C590" s="2">
         <v>3</v>
@@ -11039,7 +11042,7 @@
     </row>
     <row r="591" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B591" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C591" s="2">
         <v>3</v>
@@ -11056,7 +11059,7 @@
     </row>
     <row r="592" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B592" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C592" s="2">
         <v>3</v>
@@ -11073,7 +11076,7 @@
     </row>
     <row r="593" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B593" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C593" s="2">
         <v>3</v>
@@ -11090,7 +11093,7 @@
     </row>
     <row r="594" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B594" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C594" s="2">
         <v>3</v>
@@ -11107,7 +11110,7 @@
     </row>
     <row r="595" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B595" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C595" s="2">
         <v>4</v>
@@ -11124,7 +11127,7 @@
     </row>
     <row r="596" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B596" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C596" s="2">
         <v>4</v>
@@ -11141,7 +11144,7 @@
     </row>
     <row r="597" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B597" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C597" s="2">
         <v>4</v>
@@ -11158,7 +11161,7 @@
     </row>
     <row r="598" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B598" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C598" s="2">
         <v>4</v>
@@ -11175,7 +11178,7 @@
     </row>
     <row r="599" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B599" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C599" s="2">
         <v>4</v>
@@ -11192,7 +11195,7 @@
     </row>
     <row r="600" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B600" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C600" s="2">
         <v>4</v>
@@ -11209,7 +11212,7 @@
     </row>
     <row r="601" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B601" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C601" s="2">
         <v>4</v>
@@ -11226,7 +11229,7 @@
     </row>
     <row r="602" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B602" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C602" s="2">
         <v>4</v>
@@ -11243,7 +11246,7 @@
     </row>
     <row r="603" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B603" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C603" s="2">
         <v>5</v>
@@ -11260,7 +11263,7 @@
     </row>
     <row r="604" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B604" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C604" s="2">
         <v>5</v>
@@ -11277,7 +11280,7 @@
     </row>
     <row r="605" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B605" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C605" s="2">
         <v>5</v>
@@ -11294,7 +11297,7 @@
     </row>
     <row r="606" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B606" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C606" s="2">
         <v>5</v>
@@ -11311,7 +11314,7 @@
     </row>
     <row r="607" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B607" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C607" s="2">
         <v>5</v>
@@ -11328,7 +11331,7 @@
     </row>
     <row r="608" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B608" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C608" s="2">
         <v>5</v>
@@ -11345,7 +11348,7 @@
     </row>
     <row r="609" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B609" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C609" s="2">
         <v>5</v>
@@ -11362,7 +11365,7 @@
     </row>
     <row r="610" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B610" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C610" s="2">
         <v>5</v>
@@ -11379,7 +11382,7 @@
     </row>
     <row r="611" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B611" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C611" s="2">
         <v>8</v>
@@ -11396,7 +11399,7 @@
     </row>
     <row r="612" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B612" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C612" s="2">
         <v>8</v>
@@ -11413,7 +11416,7 @@
     </row>
     <row r="613" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B613" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C613" s="2">
         <v>8</v>
@@ -11430,7 +11433,7 @@
     </row>
     <row r="614" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B614" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C614" s="2">
         <v>8</v>
@@ -11447,7 +11450,7 @@
     </row>
     <row r="615" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B615" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C615" s="2">
         <v>8</v>
@@ -11464,7 +11467,7 @@
     </row>
     <row r="616" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B616" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C616" s="2">
         <v>8</v>
@@ -11481,7 +11484,7 @@
     </row>
     <row r="617" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B617" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C617" s="2">
         <v>8</v>
@@ -11498,7 +11501,7 @@
     </row>
     <row r="618" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B618" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C618" s="2">
         <v>8</v>
@@ -11515,7 +11518,7 @@
     </row>
     <row r="619" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B619" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C619" s="2">
         <v>6</v>
@@ -11532,7 +11535,7 @@
     </row>
     <row r="620" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B620" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C620" s="2">
         <v>6</v>
@@ -11549,7 +11552,7 @@
     </row>
     <row r="621" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B621" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C621" s="2">
         <v>6</v>
@@ -11566,7 +11569,7 @@
     </row>
     <row r="622" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B622" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C622" s="2">
         <v>6</v>
@@ -11583,7 +11586,7 @@
     </row>
     <row r="623" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B623" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C623" s="2">
         <v>6</v>
@@ -11600,7 +11603,7 @@
     </row>
     <row r="624" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B624" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C624" s="2">
         <v>6</v>
@@ -11617,7 +11620,7 @@
     </row>
     <row r="625" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B625" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C625" s="2">
         <v>6</v>
@@ -11634,7 +11637,7 @@
     </row>
     <row r="626" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B626" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C626" s="2">
         <v>6</v>
@@ -11651,7 +11654,7 @@
     </row>
     <row r="627" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B627" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C627" s="2">
         <v>7</v>
@@ -11668,7 +11671,7 @@
     </row>
     <row r="628" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B628" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C628" s="2">
         <v>7</v>
@@ -11685,7 +11688,7 @@
     </row>
     <row r="629" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B629" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C629" s="2">
         <v>7</v>
@@ -11702,7 +11705,7 @@
     </row>
     <row r="630" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B630" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C630" s="2">
         <v>7</v>
@@ -11719,7 +11722,7 @@
     </row>
     <row r="631" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B631" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C631" s="2">
         <v>7</v>
@@ -11736,7 +11739,7 @@
     </row>
     <row r="632" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B632" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C632" s="2">
         <v>7</v>
@@ -11753,7 +11756,7 @@
     </row>
     <row r="633" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B633" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C633" s="2">
         <v>7</v>
@@ -11770,7 +11773,7 @@
     </row>
     <row r="634" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B634" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C634" s="2">
         <v>7</v>
@@ -11787,7 +11790,7 @@
     </row>
     <row r="635" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B635" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C635" s="2">
         <v>9</v>
@@ -11804,7 +11807,7 @@
     </row>
     <row r="636" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B636" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C636" s="2">
         <v>9</v>
@@ -11821,7 +11824,7 @@
     </row>
     <row r="637" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B637" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C637" s="2">
         <v>9</v>
@@ -11838,7 +11841,7 @@
     </row>
     <row r="638" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B638" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C638" s="2">
         <v>9</v>
@@ -11855,7 +11858,7 @@
     </row>
     <row r="639" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B639" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C639" s="2">
         <v>9</v>
@@ -11872,7 +11875,7 @@
     </row>
     <row r="640" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B640" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C640" s="2">
         <v>9</v>
@@ -11889,7 +11892,7 @@
     </row>
     <row r="641" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B641" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C641" s="2">
         <v>9</v>
@@ -11906,7 +11909,7 @@
     </row>
     <row r="642" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B642" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C642" s="2">
         <v>9</v>
@@ -11923,7 +11926,7 @@
     </row>
     <row r="643" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B643" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C643" s="2">
         <v>9</v>
@@ -11940,7 +11943,7 @@
     </row>
     <row r="644" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B644" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C644" s="2">
         <v>10</v>
@@ -11957,7 +11960,7 @@
     </row>
     <row r="645" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B645" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C645" s="2">
         <v>10</v>
@@ -11974,7 +11977,7 @@
     </row>
     <row r="646" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B646" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C646" s="2">
         <v>10</v>
@@ -11991,7 +11994,7 @@
     </row>
     <row r="647" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B647" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C647" s="2">
         <v>10</v>
@@ -12008,7 +12011,7 @@
     </row>
     <row r="648" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B648" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C648" s="2">
         <v>10</v>
@@ -12025,7 +12028,7 @@
     </row>
     <row r="649" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B649" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C649" s="2">
         <v>10</v>
@@ -12042,7 +12045,7 @@
     </row>
     <row r="650" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B650" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C650" s="2">
         <v>10</v>
@@ -12059,7 +12062,7 @@
     </row>
     <row r="651" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B651" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C651" s="2">
         <v>10</v>
@@ -12076,7 +12079,7 @@
     </row>
     <row r="652" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B652" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C652" s="2">
         <v>8</v>
@@ -12093,7 +12096,7 @@
     </row>
     <row r="653" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B653" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C653" s="2">
         <v>8</v>
@@ -12110,7 +12113,7 @@
     </row>
     <row r="654" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B654" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C654" s="2">
         <v>8</v>
@@ -12127,7 +12130,7 @@
     </row>
     <row r="655" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B655" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C655" s="2">
         <v>8</v>
@@ -12144,7 +12147,7 @@
     </row>
     <row r="656" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B656" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C656" s="2">
         <v>8</v>
@@ -12161,7 +12164,7 @@
     </row>
     <row r="657" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B657" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C657" s="2">
         <v>8</v>
@@ -12178,7 +12181,7 @@
     </row>
     <row r="658" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B658" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C658" s="2">
         <v>8</v>
@@ -12195,7 +12198,7 @@
     </row>
     <row r="659" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B659" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C659" s="2">
         <v>8</v>
@@ -12212,7 +12215,7 @@
     </row>
     <row r="660" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B660" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C660" s="2">
         <v>6</v>
@@ -12229,7 +12232,7 @@
     </row>
     <row r="661" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B661" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C661" s="2">
         <v>6</v>
@@ -12246,7 +12249,7 @@
     </row>
     <row r="662" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B662" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C662" s="2">
         <v>6</v>
@@ -12263,7 +12266,7 @@
     </row>
     <row r="663" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B663" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C663" s="2">
         <v>6</v>
@@ -12280,7 +12283,7 @@
     </row>
     <row r="664" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B664" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C664" s="2">
         <v>6</v>
@@ -12297,7 +12300,7 @@
     </row>
     <row r="665" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B665" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C665" s="2">
         <v>6</v>
@@ -12314,7 +12317,7 @@
     </row>
     <row r="666" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B666" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C666" s="2">
         <v>6</v>
@@ -12331,7 +12334,7 @@
     </row>
     <row r="667" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B667" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C667" s="2">
         <v>6</v>
@@ -12348,7 +12351,7 @@
     </row>
     <row r="668" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B668" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C668" s="2">
         <v>7</v>
@@ -12365,7 +12368,7 @@
     </row>
     <row r="669" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B669" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C669" s="2">
         <v>7</v>
@@ -12382,7 +12385,7 @@
     </row>
     <row r="670" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B670" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C670" s="2">
         <v>7</v>
@@ -12399,7 +12402,7 @@
     </row>
     <row r="671" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B671" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C671" s="2">
         <v>7</v>
@@ -12416,7 +12419,7 @@
     </row>
     <row r="672" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B672" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C672" s="2">
         <v>7</v>
@@ -12433,7 +12436,7 @@
     </row>
     <row r="673" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B673" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C673" s="2">
         <v>7</v>
@@ -12450,7 +12453,7 @@
     </row>
     <row r="674" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B674" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C674" s="2">
         <v>7</v>
@@ -12467,7 +12470,7 @@
     </row>
     <row r="675" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B675" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C675" s="2">
         <v>7</v>
@@ -12484,7 +12487,7 @@
     </row>
     <row r="676" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B676" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C676" s="2">
         <v>9</v>
@@ -12501,7 +12504,7 @@
     </row>
     <row r="677" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B677" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C677" s="2">
         <v>9</v>
@@ -12518,7 +12521,7 @@
     </row>
     <row r="678" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B678" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C678" s="2">
         <v>9</v>
@@ -12535,7 +12538,7 @@
     </row>
     <row r="679" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B679" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C679" s="2">
         <v>9</v>
@@ -12552,7 +12555,7 @@
     </row>
     <row r="680" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B680" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C680" s="2">
         <v>9</v>
@@ -12569,7 +12572,7 @@
     </row>
     <row r="681" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B681" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C681" s="2">
         <v>9</v>
@@ -12586,7 +12589,7 @@
     </row>
     <row r="682" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B682" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C682" s="2">
         <v>9</v>
@@ -12603,7 +12606,7 @@
     </row>
     <row r="683" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B683" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C683" s="2">
         <v>9</v>
@@ -12620,7 +12623,7 @@
     </row>
     <row r="684" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B684" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C684" s="2">
         <v>10</v>
@@ -12637,7 +12640,7 @@
     </row>
     <row r="685" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B685" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C685" s="2">
         <v>10</v>
@@ -12654,7 +12657,7 @@
     </row>
     <row r="686" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B686" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C686" s="2">
         <v>10</v>
@@ -12671,7 +12674,7 @@
     </row>
     <row r="687" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B687" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C687" s="2">
         <v>10</v>
@@ -12688,7 +12691,7 @@
     </row>
     <row r="688" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B688" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C688" s="2">
         <v>10</v>
@@ -12705,7 +12708,7 @@
     </row>
     <row r="689" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B689" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C689" s="2">
         <v>10</v>
@@ -12722,7 +12725,7 @@
     </row>
     <row r="690" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B690" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C690" s="2">
         <v>10</v>
@@ -12739,7 +12742,7 @@
     </row>
     <row r="691" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B691" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C691" s="2">
         <v>10</v>
@@ -12756,7 +12759,7 @@
     </row>
     <row r="692" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B692" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D692" s="2">
         <v>223</v>
@@ -12770,7 +12773,7 @@
     </row>
     <row r="693" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B693" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C693" s="2">
         <v>3</v>
@@ -12787,7 +12790,7 @@
     </row>
     <row r="694" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B694" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C694" s="2">
         <v>3</v>
@@ -12804,7 +12807,7 @@
     </row>
     <row r="695" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B695" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C695" s="2">
         <v>3</v>
@@ -12821,7 +12824,7 @@
     </row>
     <row r="696" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B696" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C696" s="2">
         <v>3</v>
@@ -12838,7 +12841,7 @@
     </row>
     <row r="697" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B697" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C697" s="2">
         <v>3</v>
@@ -12855,7 +12858,7 @@
     </row>
     <row r="698" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B698" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C698" s="2">
         <v>3</v>
@@ -12872,7 +12875,7 @@
     </row>
     <row r="699" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B699" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C699" s="2">
         <v>3</v>
@@ -12889,7 +12892,7 @@
     </row>
     <row r="700" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B700" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C700" s="2">
         <v>3</v>
@@ -12906,7 +12909,7 @@
     </row>
     <row r="701" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B701" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C701" s="2">
         <v>2</v>
@@ -12923,7 +12926,7 @@
     </row>
     <row r="702" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B702" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C702" s="2">
         <v>2</v>
@@ -12940,7 +12943,7 @@
     </row>
     <row r="703" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B703" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C703" s="2">
         <v>2</v>
@@ -12957,7 +12960,7 @@
     </row>
     <row r="704" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B704" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C704" s="2">
         <v>2</v>
@@ -12974,7 +12977,7 @@
     </row>
     <row r="705" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B705" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C705" s="2">
         <v>2</v>
@@ -12991,7 +12994,7 @@
     </row>
     <row r="706" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B706" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C706" s="2">
         <v>2</v>
@@ -13008,7 +13011,7 @@
     </row>
     <row r="707" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B707" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C707" s="2">
         <v>2</v>
@@ -13025,7 +13028,7 @@
     </row>
     <row r="708" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B708" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C708" s="2">
         <v>2</v>
@@ -13042,7 +13045,7 @@
     </row>
     <row r="709" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B709" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C709" s="2">
         <v>1</v>
@@ -13059,7 +13062,7 @@
     </row>
     <row r="710" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B710" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C710" s="2">
         <v>1</v>
@@ -13076,7 +13079,7 @@
     </row>
     <row r="711" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B711" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C711" s="2">
         <v>1</v>
@@ -13093,7 +13096,7 @@
     </row>
     <row r="712" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B712" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C712" s="2">
         <v>1</v>
@@ -13110,7 +13113,7 @@
     </row>
     <row r="713" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B713" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C713" s="2">
         <v>1</v>
@@ -13127,7 +13130,7 @@
     </row>
     <row r="714" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B714" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C714" s="2">
         <v>1</v>
@@ -13144,7 +13147,7 @@
     </row>
     <row r="715" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B715" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C715" s="2">
         <v>1</v>
@@ -13161,7 +13164,7 @@
     </row>
     <row r="716" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B716" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C716" s="2">
         <v>1</v>
@@ -13178,7 +13181,7 @@
     </row>
     <row r="717" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B717" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C717" s="2">
         <v>4</v>
@@ -13195,7 +13198,7 @@
     </row>
     <row r="718" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B718" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C718" s="2">
         <v>4</v>
@@ -13212,7 +13215,7 @@
     </row>
     <row r="719" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B719" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C719" s="2">
         <v>4</v>
@@ -13229,7 +13232,7 @@
     </row>
     <row r="720" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B720" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C720" s="2">
         <v>4</v>
@@ -13246,7 +13249,7 @@
     </row>
     <row r="721" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B721" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C721" s="2">
         <v>4</v>
@@ -13263,7 +13266,7 @@
     </row>
     <row r="722" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B722" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C722" s="2">
         <v>4</v>
@@ -13280,7 +13283,7 @@
     </row>
     <row r="723" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B723" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C723" s="2">
         <v>4</v>
@@ -13297,7 +13300,7 @@
     </row>
     <row r="724" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B724" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C724" s="2">
         <v>4</v>
@@ -13314,7 +13317,7 @@
     </row>
     <row r="725" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B725" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C725" s="2">
         <v>5</v>
@@ -13331,7 +13334,7 @@
     </row>
     <row r="726" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B726" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C726" s="2">
         <v>5</v>
@@ -13348,7 +13351,7 @@
     </row>
     <row r="727" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B727" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C727" s="2">
         <v>5</v>
@@ -13365,7 +13368,7 @@
     </row>
     <row r="728" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B728" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C728" s="2">
         <v>5</v>
@@ -13382,7 +13385,7 @@
     </row>
     <row r="729" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B729" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C729" s="2">
         <v>5</v>
@@ -13399,7 +13402,7 @@
     </row>
     <row r="730" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B730" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C730" s="2">
         <v>5</v>
@@ -13416,7 +13419,7 @@
     </row>
     <row r="731" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B731" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C731" s="2">
         <v>5</v>
@@ -13433,7 +13436,7 @@
     </row>
     <row r="732" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B732" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C732" s="2">
         <v>5</v>
@@ -13450,7 +13453,7 @@
     </row>
     <row r="733" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B733" s="2" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="C733" s="2">
         <v>4</v>
@@ -13464,7 +13467,7 @@
     </row>
     <row r="734" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B734" s="2" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="C734" s="2">
         <v>4</v>
@@ -13478,7 +13481,7 @@
     </row>
     <row r="735" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B735" s="2" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="C735" s="2">
         <v>4</v>
@@ -13492,7 +13495,7 @@
     </row>
     <row r="736" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B736" s="2" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="C736" s="2">
         <v>4</v>
@@ -13506,7 +13509,7 @@
     </row>
     <row r="737" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B737" s="2" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="C737" s="2">
         <v>4</v>
@@ -13520,7 +13523,7 @@
     </row>
     <row r="738" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B738" s="2" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="C738" s="2">
         <v>4</v>
@@ -13534,7 +13537,7 @@
     </row>
     <row r="739" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B739" s="2" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="C739" s="2">
         <v>4</v>
@@ -13548,7 +13551,7 @@
     </row>
     <row r="740" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B740" s="2" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="C740" s="2">
         <v>4</v>
@@ -13562,7 +13565,7 @@
     </row>
     <row r="741" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B741" s="2" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="C741" s="2">
         <v>5</v>
@@ -13576,7 +13579,7 @@
     </row>
     <row r="742" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B742" s="2" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="C742" s="2">
         <v>5</v>
@@ -13590,7 +13593,7 @@
     </row>
     <row r="743" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B743" s="2" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="C743" s="2">
         <v>5</v>
@@ -13604,7 +13607,7 @@
     </row>
     <row r="744" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B744" s="2" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="C744" s="2">
         <v>5</v>
@@ -13618,7 +13621,7 @@
     </row>
     <row r="745" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B745" s="2" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="C745" s="2">
         <v>5</v>
@@ -13632,7 +13635,7 @@
     </row>
     <row r="746" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B746" s="2" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="C746" s="2">
         <v>5</v>
@@ -13646,7 +13649,7 @@
     </row>
     <row r="747" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B747" s="2" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="C747" s="2">
         <v>5</v>
@@ -13660,7 +13663,7 @@
     </row>
     <row r="748" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B748" s="2" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="C748" s="2">
         <v>5</v>
@@ -13674,7 +13677,7 @@
     </row>
     <row r="749" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B749" s="2" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="C749" s="2">
         <v>6</v>
@@ -13688,7 +13691,7 @@
     </row>
     <row r="750" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B750" s="2" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="C750" s="2">
         <v>6</v>
@@ -13702,7 +13705,7 @@
     </row>
     <row r="751" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B751" s="2" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="C751" s="2">
         <v>6</v>
@@ -13716,7 +13719,7 @@
     </row>
     <row r="752" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B752" s="2" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="C752" s="2">
         <v>6</v>
@@ -13730,7 +13733,7 @@
     </row>
     <row r="753" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B753" s="2" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="C753" s="2">
         <v>6</v>
@@ -13744,7 +13747,7 @@
     </row>
     <row r="754" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B754" s="2" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="C754" s="2">
         <v>6</v>
@@ -13758,7 +13761,7 @@
     </row>
     <row r="755" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B755" s="2" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="C755" s="2">
         <v>6</v>
@@ -13772,7 +13775,7 @@
     </row>
     <row r="756" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B756" s="2" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="C756" s="2">
         <v>6</v>
@@ -13786,7 +13789,7 @@
     </row>
     <row r="757" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B757" s="2" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="C757" s="2">
         <v>6</v>
@@ -13800,7 +13803,7 @@
     </row>
     <row r="758" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B758" s="2" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="C758" s="2">
         <v>6</v>
@@ -13814,7 +13817,7 @@
     </row>
     <row r="759" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B759" s="2" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="C759" s="2">
         <v>6</v>
@@ -13828,7 +13831,7 @@
     </row>
     <row r="760" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B760" s="2" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="C760" s="2">
         <v>6</v>
@@ -13842,7 +13845,7 @@
     </row>
     <row r="761" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B761" s="2" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="C761" s="2">
         <v>6</v>
@@ -13856,7 +13859,7 @@
     </row>
     <row r="762" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B762" s="2" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="C762" s="2">
         <v>6</v>
@@ -13870,7 +13873,7 @@
     </row>
     <row r="763" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B763" s="2" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="C763" s="2">
         <v>6</v>
@@ -13884,7 +13887,7 @@
     </row>
     <row r="764" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B764" s="2" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="C764" s="2">
         <v>6</v>
@@ -13898,7 +13901,7 @@
     </row>
     <row r="765" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B765" s="2" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="C765" s="2">
         <v>5</v>
@@ -13912,7 +13915,7 @@
     </row>
     <row r="766" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B766" s="2" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="C766" s="2">
         <v>5</v>
@@ -13926,7 +13929,7 @@
     </row>
     <row r="767" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B767" s="2" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="C767" s="2">
         <v>5</v>
@@ -13940,7 +13943,7 @@
     </row>
     <row r="768" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B768" s="2" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="C768" s="2">
         <v>5</v>
@@ -13954,7 +13957,7 @@
     </row>
     <row r="769" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B769" s="2" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="C769" s="2">
         <v>5</v>
@@ -13968,7 +13971,7 @@
     </row>
     <row r="770" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B770" s="2" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="C770" s="2">
         <v>5</v>
@@ -13982,7 +13985,7 @@
     </row>
     <row r="771" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B771" s="2" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="C771" s="2">
         <v>5</v>
@@ -13996,7 +13999,7 @@
     </row>
     <row r="772" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B772" s="2" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="C772" s="2">
         <v>5</v>
@@ -14010,7 +14013,7 @@
     </row>
     <row r="773" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B773" s="2" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="C773" s="2">
         <v>4</v>
@@ -14024,7 +14027,7 @@
     </row>
     <row r="774" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B774" s="2" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="C774" s="2">
         <v>4</v>
@@ -14038,7 +14041,7 @@
     </row>
     <row r="775" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B775" s="2" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="C775" s="2">
         <v>4</v>
@@ -14052,7 +14055,7 @@
     </row>
     <row r="776" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B776" s="2" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="C776" s="2">
         <v>4</v>
@@ -14066,7 +14069,7 @@
     </row>
     <row r="777" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B777" s="2" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="C777" s="2">
         <v>4</v>
@@ -14080,7 +14083,7 @@
     </row>
     <row r="778" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B778" s="2" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="C778" s="2">
         <v>4</v>
@@ -14094,7 +14097,7 @@
     </row>
     <row r="779" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B779" s="2" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="C779" s="2">
         <v>4</v>
@@ -14108,7 +14111,7 @@
     </row>
     <row r="780" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B780" s="2" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="C780" s="2">
         <v>4</v>
@@ -14122,7 +14125,7 @@
     </row>
     <row r="781" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B781" s="2" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="C781" s="2">
         <v>4</v>
@@ -14136,7 +14139,7 @@
     </row>
     <row r="782" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B782" s="2" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="C782" s="2">
         <v>4</v>
@@ -14150,7 +14153,7 @@
     </row>
     <row r="783" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B783" s="2" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="C783" s="2">
         <v>4</v>
@@ -14164,7 +14167,7 @@
     </row>
     <row r="784" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B784" s="2" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="C784" s="2">
         <v>4</v>
@@ -14178,7 +14181,7 @@
     </row>
     <row r="785" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B785" s="2" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="C785" s="2">
         <v>4</v>
@@ -14192,7 +14195,7 @@
     </row>
     <row r="786" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B786" s="2" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="C786" s="2">
         <v>4</v>
@@ -14206,7 +14209,7 @@
     </row>
     <row r="787" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B787" s="2" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="C787" s="2">
         <v>5</v>
@@ -14220,7 +14223,7 @@
     </row>
     <row r="788" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B788" s="2" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="C788" s="2">
         <v>5</v>
@@ -14234,7 +14237,7 @@
     </row>
     <row r="789" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B789" s="2" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="C789" s="2">
         <v>5</v>
@@ -14248,7 +14251,7 @@
     </row>
     <row r="790" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B790" s="2" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="C790" s="2">
         <v>5</v>
@@ -14262,7 +14265,7 @@
     </row>
     <row r="791" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B791" s="2" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="C791" s="2">
         <v>5</v>
@@ -14276,7 +14279,7 @@
     </row>
     <row r="792" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B792" s="2" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="C792" s="2">
         <v>5</v>
@@ -14290,7 +14293,7 @@
     </row>
     <row r="793" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B793" s="2" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="C793" s="2">
         <v>6</v>
@@ -14304,7 +14307,7 @@
     </row>
     <row r="794" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B794" s="2" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="C794" s="2">
         <v>6</v>
@@ -14318,7 +14321,7 @@
     </row>
     <row r="795" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B795" s="2" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="C795" s="2">
         <v>6</v>
@@ -14332,7 +14335,7 @@
     </row>
     <row r="796" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B796" s="2" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="C796" s="2">
         <v>6</v>
@@ -14346,7 +14349,7 @@
     </row>
     <row r="797" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B797" s="2" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="C797" s="2">
         <v>6</v>
@@ -14360,7 +14363,7 @@
     </row>
     <row r="798" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B798" s="2" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="C798" s="2">
         <v>6</v>
@@ -14374,7 +14377,7 @@
     </row>
     <row r="799" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B799" s="2" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="C799" s="2">
         <v>6</v>
@@ -14388,7 +14391,7 @@
     </row>
     <row r="800" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B800" s="2" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="C800" s="2">
         <v>6</v>
@@ -14402,7 +14405,7 @@
     </row>
     <row r="801" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B801" s="2" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="C801" s="2">
         <v>6</v>
@@ -14416,7 +14419,7 @@
     </row>
     <row r="802" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B802" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D802" s="2">
         <v>101</v>
@@ -14427,7 +14430,7 @@
     </row>
     <row r="803" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B803" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C803" s="2">
         <v>1</v>
@@ -14441,7 +14444,7 @@
     </row>
     <row r="804" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B804" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C804" s="2">
         <v>1</v>
@@ -14455,7 +14458,7 @@
     </row>
     <row r="805" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B805" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C805" s="2">
         <v>1</v>
@@ -14469,7 +14472,7 @@
     </row>
     <row r="806" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B806" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C806" s="2">
         <v>1</v>
@@ -14483,7 +14486,7 @@
     </row>
     <row r="807" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B807" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C807" s="2">
         <v>1</v>
@@ -14497,7 +14500,7 @@
     </row>
     <row r="808" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B808" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C808" s="2">
         <v>1</v>
@@ -14511,7 +14514,7 @@
     </row>
     <row r="809" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B809" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C809" s="2">
         <v>1</v>
@@ -14525,7 +14528,7 @@
     </row>
     <row r="810" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B810" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C810" s="2">
         <v>1</v>
@@ -14539,7 +14542,7 @@
     </row>
     <row r="811" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B811" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C811" s="2">
         <v>2</v>
@@ -14553,7 +14556,7 @@
     </row>
     <row r="812" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B812" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C812" s="2">
         <v>2</v>
@@ -14567,7 +14570,7 @@
     </row>
     <row r="813" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B813" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C813" s="2">
         <v>3</v>
@@ -14581,7 +14584,7 @@
     </row>
     <row r="814" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B814" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C814" s="2">
         <v>3</v>
@@ -14595,7 +14598,7 @@
     </row>
     <row r="815" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B815" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C815" s="2">
         <v>3</v>
@@ -14609,7 +14612,7 @@
     </row>
     <row r="816" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B816" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C816" s="2">
         <v>3</v>
@@ -14623,7 +14626,7 @@
     </row>
     <row r="817" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B817" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C817" s="2">
         <v>2</v>
@@ -14637,7 +14640,7 @@
     </row>
     <row r="818" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B818" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C818" s="2">
         <v>2</v>
@@ -14651,7 +14654,7 @@
     </row>
     <row r="819" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B819" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C819" s="2">
         <v>3</v>
@@ -14665,7 +14668,7 @@
     </row>
     <row r="820" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B820" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C820" s="2">
         <v>3</v>
@@ -14679,7 +14682,7 @@
     </row>
     <row r="821" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B821" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C821" s="2">
         <v>2</v>
@@ -14693,7 +14696,7 @@
     </row>
     <row r="822" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B822" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C822" s="2">
         <v>2</v>
@@ -14707,7 +14710,7 @@
     </row>
     <row r="823" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B823" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C823" s="2">
         <v>3</v>
@@ -14721,7 +14724,7 @@
     </row>
     <row r="824" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B824" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C824" s="2">
         <v>3</v>
@@ -14735,7 +14738,7 @@
     </row>
     <row r="825" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B825" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C825" s="2">
         <v>2</v>
@@ -14749,7 +14752,7 @@
     </row>
     <row r="826" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B826" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C826" s="2">
         <v>2</v>
@@ -14763,7 +14766,7 @@
     </row>
     <row r="827" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B827" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C827" s="2">
         <v>1</v>
@@ -14777,7 +14780,7 @@
     </row>
     <row r="828" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B828" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C828" s="2">
         <v>1</v>
@@ -14791,7 +14794,7 @@
     </row>
     <row r="829" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B829" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C829" s="2">
         <v>2</v>
@@ -14805,7 +14808,7 @@
     </row>
     <row r="830" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B830" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C830" s="2">
         <v>2</v>
@@ -14819,7 +14822,7 @@
     </row>
     <row r="831" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B831" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C831" s="2">
         <v>3</v>
@@ -14833,7 +14836,7 @@
     </row>
     <row r="832" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B832" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C832" s="2">
         <v>3</v>
@@ -14847,7 +14850,7 @@
     </row>
     <row r="833" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B833" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C833" s="2">
         <v>1</v>
@@ -14861,7 +14864,7 @@
     </row>
     <row r="834" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B834" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C834" s="2">
         <v>1</v>
@@ -14875,7 +14878,7 @@
     </row>
     <row r="835" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B835" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C835" s="2">
         <v>2</v>
@@ -14889,7 +14892,7 @@
     </row>
     <row r="836" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B836" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C836" s="2">
         <v>2</v>
@@ -14903,7 +14906,7 @@
     </row>
     <row r="837" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B837" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C837" s="2">
         <v>3</v>
@@ -14917,7 +14920,7 @@
     </row>
     <row r="838" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B838" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C838" s="2">
         <v>3</v>
@@ -14931,7 +14934,7 @@
     </row>
     <row r="839" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B839" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C839" s="2">
         <v>1</v>
@@ -14943,12 +14946,12 @@
         <v>24</v>
       </c>
       <c r="G839" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="840" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B840" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C840" s="2">
         <v>1</v>
@@ -14960,12 +14963,12 @@
         <v>25</v>
       </c>
       <c r="G840" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="841" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B841" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C841" s="2">
         <v>2</v>
@@ -14977,12 +14980,12 @@
         <v>24</v>
       </c>
       <c r="G841" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="842" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B842" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C842" s="2">
         <v>2</v>
@@ -14994,12 +14997,12 @@
         <v>25</v>
       </c>
       <c r="G842" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="843" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B843" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C843" s="2">
         <v>3</v>
@@ -15011,12 +15014,12 @@
         <v>24</v>
       </c>
       <c r="G843" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="844" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B844" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C844" s="2">
         <v>3</v>
@@ -15028,12 +15031,12 @@
         <v>25</v>
       </c>
       <c r="G844" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="845" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B845" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C845" s="2">
         <v>1</v>
@@ -15047,7 +15050,7 @@
     </row>
     <row r="846" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B846" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C846" s="2">
         <v>1</v>
@@ -15061,7 +15064,7 @@
     </row>
     <row r="847" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B847" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C847" s="2">
         <v>2</v>
@@ -15075,7 +15078,7 @@
     </row>
     <row r="848" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B848" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C848" s="2">
         <v>2</v>
@@ -15089,7 +15092,7 @@
     </row>
     <row r="849" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B849" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C849" s="2">
         <v>3</v>
@@ -15103,7 +15106,7 @@
     </row>
     <row r="850" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B850" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C850" s="2">
         <v>3</v>
@@ -15117,7 +15120,7 @@
     </row>
     <row r="851" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B851" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C851" s="2">
         <v>1</v>
@@ -15131,7 +15134,7 @@
     </row>
     <row r="852" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B852" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C852" s="2">
         <v>1</v>
@@ -15145,7 +15148,7 @@
     </row>
     <row r="853" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B853" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C853" s="2">
         <v>1</v>
@@ -15159,7 +15162,7 @@
     </row>
     <row r="854" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B854" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C854" s="2">
         <v>1</v>
@@ -15173,7 +15176,7 @@
     </row>
     <row r="855" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B855" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C855" s="2">
         <v>1</v>
@@ -15187,7 +15190,7 @@
     </row>
     <row r="856" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B856" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C856" s="2">
         <v>1</v>
@@ -15201,7 +15204,7 @@
     </row>
     <row r="857" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B857" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C857" s="2">
         <v>2</v>
@@ -15215,7 +15218,7 @@
     </row>
     <row r="858" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B858" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C858" s="2">
         <v>2</v>
@@ -15229,7 +15232,7 @@
     </row>
     <row r="859" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B859" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C859" s="2">
         <v>2</v>
@@ -15243,7 +15246,7 @@
     </row>
     <row r="860" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B860" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C860" s="2">
         <v>2</v>
@@ -15257,7 +15260,7 @@
     </row>
     <row r="861" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B861" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C861" s="2">
         <v>2</v>
@@ -15271,7 +15274,7 @@
     </row>
     <row r="862" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B862" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C862" s="2">
         <v>2</v>
@@ -15285,7 +15288,7 @@
     </row>
     <row r="863" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B863" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C863" s="2">
         <v>3</v>
@@ -15299,7 +15302,7 @@
     </row>
     <row r="864" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B864" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C864" s="2">
         <v>3</v>
@@ -15313,7 +15316,7 @@
     </row>
     <row r="865" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B865" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C865" s="2">
         <v>3</v>
@@ -15327,7 +15330,7 @@
     </row>
     <row r="866" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B866" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C866" s="2">
         <v>3</v>
@@ -15341,7 +15344,7 @@
     </row>
     <row r="867" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B867" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C867" s="2">
         <v>3</v>
@@ -15355,7 +15358,7 @@
     </row>
     <row r="868" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B868" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C868" s="2">
         <v>3</v>
@@ -15369,7 +15372,7 @@
     </row>
     <row r="869" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B869" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C869" s="2">
         <v>4</v>
@@ -15381,12 +15384,12 @@
         <v>6</v>
       </c>
       <c r="G869" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="870" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B870" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C870" s="2">
         <v>4</v>
@@ -15400,7 +15403,7 @@
     </row>
     <row r="871" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B871" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C871" s="2">
         <v>4</v>
@@ -15414,7 +15417,7 @@
     </row>
     <row r="872" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B872" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C872" s="2">
         <v>4</v>
@@ -15428,7 +15431,7 @@
     </row>
     <row r="873" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B873" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C873" s="2">
         <v>5</v>
@@ -15442,7 +15445,7 @@
     </row>
     <row r="874" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B874" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C874" s="2">
         <v>5</v>
@@ -15456,7 +15459,7 @@
     </row>
     <row r="875" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B875" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C875" s="2">
         <v>5</v>
@@ -15470,7 +15473,7 @@
     </row>
     <row r="876" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B876" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C876" s="2">
         <v>5</v>
@@ -15484,7 +15487,7 @@
     </row>
     <row r="877" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B877" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C877" s="2">
         <v>6</v>
@@ -15498,7 +15501,7 @@
     </row>
     <row r="878" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B878" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C878" s="2">
         <v>6</v>
@@ -15512,7 +15515,7 @@
     </row>
     <row r="879" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B879" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C879" s="2">
         <v>5</v>
@@ -15526,7 +15529,7 @@
     </row>
     <row r="880" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B880" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C880" s="2">
         <v>5</v>
@@ -15540,7 +15543,7 @@
     </row>
     <row r="881" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B881" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C881" s="2">
         <v>6</v>
@@ -15554,7 +15557,7 @@
     </row>
     <row r="882" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B882" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C882" s="2">
         <v>6</v>
@@ -15568,7 +15571,7 @@
     </row>
     <row r="883" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B883" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C883" s="2">
         <v>6</v>
@@ -15582,7 +15585,7 @@
     </row>
     <row r="884" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B884" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C884" s="2">
         <v>6</v>
@@ -15596,7 +15599,7 @@
     </row>
     <row r="885" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B885" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C885" s="2">
         <v>6</v>
@@ -15610,7 +15613,7 @@
     </row>
     <row r="886" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B886" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C886" s="2">
         <v>6</v>
@@ -15624,7 +15627,7 @@
     </row>
     <row r="887" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B887" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C887" s="2">
         <v>6</v>
@@ -15638,7 +15641,7 @@
     </row>
     <row r="888" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B888" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C888" s="2">
         <v>6</v>
@@ -15652,7 +15655,7 @@
     </row>
     <row r="889" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B889" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C889" s="2">
         <v>5</v>
@@ -15666,7 +15669,7 @@
     </row>
     <row r="890" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B890" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C890" s="2">
         <v>5</v>
@@ -15680,7 +15683,7 @@
     </row>
     <row r="891" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B891" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C891" s="2">
         <v>4</v>
@@ -15694,7 +15697,7 @@
     </row>
     <row r="892" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B892" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C892" s="2">
         <v>4</v>
@@ -15708,7 +15711,7 @@
     </row>
     <row r="893" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B893" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C893" s="2">
         <v>6</v>
@@ -15722,7 +15725,7 @@
     </row>
     <row r="894" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B894" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C894" s="2">
         <v>6</v>
@@ -15736,7 +15739,7 @@
     </row>
     <row r="895" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B895" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C895" s="2">
         <v>5</v>
@@ -15750,7 +15753,7 @@
     </row>
     <row r="896" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B896" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C896" s="2">
         <v>5</v>
@@ -15764,7 +15767,7 @@
     </row>
     <row r="897" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B897" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C897" s="2">
         <v>4</v>
@@ -15776,12 +15779,12 @@
         <v>33</v>
       </c>
       <c r="G897" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="898" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B898" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C898" s="2">
         <v>4</v>
@@ -15793,12 +15796,12 @@
         <v>34</v>
       </c>
       <c r="G898" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="899" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B899" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C899" s="2">
         <v>4</v>
@@ -15812,7 +15815,7 @@
     </row>
     <row r="900" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B900" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C900" s="2">
         <v>4</v>
@@ -15826,7 +15829,7 @@
     </row>
     <row r="901" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B901" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C901" s="2">
         <v>5</v>
@@ -15840,7 +15843,7 @@
     </row>
     <row r="902" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B902" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C902" s="2">
         <v>5</v>
@@ -15854,7 +15857,7 @@
     </row>
     <row r="903" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B903" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C903" s="2">
         <v>6</v>
@@ -15868,7 +15871,7 @@
     </row>
     <row r="904" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B904" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C904" s="2">
         <v>6</v>
@@ -15882,7 +15885,7 @@
     </row>
     <row r="905" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B905" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C905" s="2">
         <v>5</v>
@@ -15896,7 +15899,7 @@
     </row>
     <row r="906" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B906" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C906" s="2">
         <v>5</v>
@@ -15910,7 +15913,7 @@
     </row>
     <row r="907" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B907" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C907" s="2">
         <v>6</v>
@@ -15924,7 +15927,7 @@
     </row>
     <row r="908" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B908" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C908" s="2">
         <v>6</v>
@@ -15938,7 +15941,7 @@
     </row>
     <row r="909" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B909" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C909" s="2">
         <v>4</v>
@@ -15952,7 +15955,7 @@
     </row>
     <row r="910" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B910" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C910" s="2">
         <v>4</v>
@@ -15966,7 +15969,7 @@
     </row>
     <row r="911" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B911" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C911" s="2">
         <v>4</v>
@@ -15980,7 +15983,7 @@
     </row>
     <row r="912" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B912" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C912" s="2">
         <v>4</v>
@@ -15994,7 +15997,7 @@
     </row>
     <row r="913" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B913" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C913" s="2">
         <v>5</v>
@@ -16008,7 +16011,7 @@
     </row>
     <row r="914" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B914" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C914" s="2">
         <v>5</v>
@@ -16022,7 +16025,7 @@
     </row>
     <row r="915" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B915" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C915" s="2">
         <v>6</v>
@@ -16036,7 +16039,7 @@
     </row>
     <row r="916" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B916" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C916" s="2">
         <v>6</v>
@@ -16050,7 +16053,7 @@
     </row>
     <row r="917" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B917" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C917" s="2">
         <v>4</v>
@@ -16064,7 +16067,7 @@
     </row>
     <row r="918" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B918" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C918" s="2">
         <v>4</v>
@@ -16078,7 +16081,7 @@
     </row>
     <row r="919" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B919" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C919" s="2">
         <v>5</v>
@@ -16092,7 +16095,7 @@
     </row>
     <row r="920" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B920" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C920" s="2">
         <v>5</v>
@@ -16106,7 +16109,7 @@
     </row>
     <row r="921" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B921" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C921" s="2">
         <v>6</v>
@@ -16120,7 +16123,7 @@
     </row>
     <row r="922" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B922" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C922" s="2">
         <v>6</v>
@@ -16134,7 +16137,7 @@
     </row>
     <row r="923" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B923" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D923" s="2">
         <v>101</v>
@@ -16145,7 +16148,7 @@
     </row>
     <row r="924" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B924" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C924" s="2">
         <v>6</v>
@@ -16159,7 +16162,7 @@
     </row>
     <row r="925" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B925" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C925" s="2">
         <v>6</v>
@@ -16173,7 +16176,7 @@
     </row>
     <row r="926" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B926" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C926" s="2">
         <v>6</v>
@@ -16187,7 +16190,7 @@
     </row>
     <row r="927" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B927" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C927" s="2">
         <v>6</v>
@@ -16202,12 +16205,12 @@
         <v>3</v>
       </c>
       <c r="G927" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="928" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B928" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C928" s="2">
         <v>6</v>
@@ -16221,7 +16224,7 @@
     </row>
     <row r="929" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B929" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C929" s="2">
         <v>6</v>
@@ -16230,12 +16233,12 @@
         <v>107</v>
       </c>
       <c r="E929" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="930" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B930" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C930" s="2">
         <v>7</v>
@@ -16249,7 +16252,7 @@
     </row>
     <row r="931" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B931" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C931" s="2">
         <v>7</v>
@@ -16263,7 +16266,7 @@
     </row>
     <row r="932" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B932" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C932" s="2">
         <v>8</v>
@@ -16272,12 +16275,12 @@
         <v>110</v>
       </c>
       <c r="E932" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="933" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B933" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C933" s="2">
         <v>8</v>
@@ -16286,12 +16289,12 @@
         <v>111</v>
       </c>
       <c r="E933" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="934" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B934" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C934" s="2">
         <v>9</v>
@@ -16305,7 +16308,7 @@
     </row>
     <row r="935" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B935" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C935" s="2">
         <v>9</v>
@@ -16319,7 +16322,7 @@
     </row>
     <row r="936" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B936" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C936" s="2">
         <v>10</v>
@@ -16333,7 +16336,7 @@
     </row>
     <row r="937" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B937" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C937" s="2">
         <v>10</v>
@@ -16347,7 +16350,7 @@
     </row>
     <row r="938" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B938" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C938" s="2">
         <v>10</v>
@@ -16361,7 +16364,7 @@
     </row>
     <row r="939" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B939" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C939" s="2">
         <v>10</v>
@@ -16375,7 +16378,7 @@
     </row>
     <row r="940" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B940" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C940" s="2">
         <v>10</v>
@@ -16389,7 +16392,7 @@
     </row>
     <row r="941" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B941" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C941" s="2">
         <v>10</v>
@@ -16403,7 +16406,7 @@
     </row>
     <row r="942" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B942" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C942" s="2">
         <v>9</v>
@@ -16417,7 +16420,7 @@
     </row>
     <row r="943" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B943" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C943" s="2">
         <v>9</v>
@@ -16431,7 +16434,7 @@
     </row>
     <row r="944" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B944" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C944" s="2">
         <v>8</v>
@@ -16445,7 +16448,7 @@
     </row>
     <row r="945" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B945" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C945" s="2">
         <v>8</v>
@@ -16459,7 +16462,7 @@
     </row>
     <row r="946" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B946" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C946" s="2">
         <v>8</v>
@@ -16473,7 +16476,7 @@
     </row>
     <row r="947" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B947" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C947" s="2">
         <v>8</v>
@@ -16488,12 +16491,12 @@
         <v>4</v>
       </c>
       <c r="G947" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="948" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B948" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C948" s="2">
         <v>7</v>
@@ -16505,12 +16508,12 @@
         <v>6</v>
       </c>
       <c r="G948" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="949" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B949" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C949" s="2">
         <v>7</v>
@@ -16522,12 +16525,12 @@
         <v>8</v>
       </c>
       <c r="G949" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="950" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B950" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C950" s="2">
         <v>7</v>
@@ -16541,7 +16544,7 @@
     </row>
     <row r="951" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B951" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C951" s="2">
         <v>7</v>
@@ -16556,12 +16559,12 @@
         <v>3</v>
       </c>
       <c r="G951" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="952" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B952" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C952" s="2">
         <v>8</v>
@@ -16575,7 +16578,7 @@
     </row>
     <row r="953" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B953" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C953" s="2">
         <v>8</v>
@@ -16589,7 +16592,7 @@
     </row>
     <row r="954" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B954" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C954" s="2">
         <v>8</v>
@@ -16598,12 +16601,12 @@
         <v>132</v>
       </c>
       <c r="E954" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="955" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B955" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C955" s="2">
         <v>8</v>
@@ -16612,12 +16615,12 @@
         <v>133</v>
       </c>
       <c r="E955" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="956" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B956" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C956" s="2">
         <v>9</v>
@@ -16631,7 +16634,7 @@
     </row>
     <row r="957" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B957" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C957" s="2">
         <v>9</v>
@@ -16648,7 +16651,7 @@
     </row>
     <row r="958" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B958" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C958" s="2">
         <v>1</v>
@@ -16662,7 +16665,7 @@
     </row>
     <row r="959" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B959" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C959" s="2">
         <v>1</v>
@@ -16676,7 +16679,7 @@
     </row>
     <row r="960" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B960" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C960" s="2">
         <v>1</v>
@@ -16690,7 +16693,7 @@
     </row>
     <row r="961" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B961" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C961" s="2">
         <v>1</v>
@@ -16704,7 +16707,7 @@
     </row>
     <row r="962" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B962" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C962" s="2">
         <v>1</v>
@@ -16718,7 +16721,7 @@
     </row>
     <row r="963" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B963" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C963" s="2">
         <v>1</v>
@@ -16732,7 +16735,7 @@
     </row>
     <row r="964" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B964" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C964" s="2">
         <v>2</v>
@@ -16746,7 +16749,7 @@
     </row>
     <row r="965" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B965" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C965" s="2">
         <v>2</v>
@@ -16760,18 +16763,18 @@
     </row>
     <row r="966" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B966" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D966" s="2">
         <v>144</v>
       </c>
       <c r="G966" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="967" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B967" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C967" s="2">
         <v>3</v>
@@ -16780,12 +16783,12 @@
         <v>145</v>
       </c>
       <c r="E967" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="968" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B968" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C968" s="2">
         <v>3</v>
@@ -16794,12 +16797,12 @@
         <v>146</v>
       </c>
       <c r="E968" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="969" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B969" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C969" s="2">
         <v>4</v>
@@ -16813,7 +16816,7 @@
     </row>
     <row r="970" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B970" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C970" s="2">
         <v>4</v>
@@ -16827,7 +16830,7 @@
     </row>
     <row r="971" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B971" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C971" s="2">
         <v>5</v>
@@ -16841,7 +16844,7 @@
     </row>
     <row r="972" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B972" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C972" s="2">
         <v>5</v>
@@ -16855,7 +16858,7 @@
     </row>
     <row r="973" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B973" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C973" s="2">
         <v>5</v>
@@ -16869,7 +16872,7 @@
     </row>
     <row r="974" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B974" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C974" s="2">
         <v>5</v>
@@ -16883,7 +16886,7 @@
     </row>
     <row r="975" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B975" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C975" s="2">
         <v>5</v>
@@ -16897,7 +16900,7 @@
     </row>
     <row r="976" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B976" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C976" s="2">
         <v>5</v>
@@ -16911,7 +16914,7 @@
     </row>
     <row r="977" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B977" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C977" s="2">
         <v>4</v>
@@ -16925,7 +16928,7 @@
     </row>
     <row r="978" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B978" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C978" s="2">
         <v>4</v>
@@ -16939,7 +16942,7 @@
     </row>
     <row r="979" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B979" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C979" s="2">
         <v>3</v>
@@ -16953,7 +16956,7 @@
     </row>
     <row r="980" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B980" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C980" s="2">
         <v>3</v>
@@ -16967,7 +16970,7 @@
     </row>
     <row r="981" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B981" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C981" s="2">
         <v>2</v>
@@ -16981,7 +16984,7 @@
     </row>
     <row r="982" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B982" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C982" s="2">
         <v>2</v>
@@ -16995,7 +16998,7 @@
     </row>
     <row r="983" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B983" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C983" s="2">
         <v>3</v>
@@ -17009,7 +17012,7 @@
     </row>
     <row r="984" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B984" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C984" s="2">
         <v>3</v>
@@ -17024,12 +17027,12 @@
         <v>3</v>
       </c>
       <c r="G984" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="985" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B985" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C985" s="2">
         <v>2</v>
@@ -17043,7 +17046,7 @@
     </row>
     <row r="986" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B986" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C986" s="2">
         <v>2</v>
@@ -17060,7 +17063,7 @@
     </row>
     <row r="987" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B987" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C987" s="2">
         <v>3</v>
@@ -17074,7 +17077,7 @@
     </row>
     <row r="988" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B988" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C988" s="2">
         <v>3</v>
@@ -17088,7 +17091,7 @@
     </row>
     <row r="989" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B989" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C989" s="2">
         <v>3</v>
@@ -17097,12 +17100,12 @@
         <v>167</v>
       </c>
       <c r="E989" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="990" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B990" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C990" s="2">
         <v>3</v>
@@ -17111,12 +17114,12 @@
         <v>168</v>
       </c>
       <c r="E990" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="991" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B991" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C991" s="2">
         <v>4</v>
@@ -17130,7 +17133,7 @@
     </row>
     <row r="992" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B992" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C992" s="2">
         <v>4</v>
@@ -17145,7 +17148,7 @@
     <row r="993" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A993" s="6"/>
       <c r="B993" s="6" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C993" s="6"/>
       <c r="D993" s="6">
@@ -17159,7 +17162,7 @@
     </row>
     <row r="994" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B994" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C994" s="2">
         <v>1</v>
@@ -17173,7 +17176,7 @@
     </row>
     <row r="995" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B995" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C995" s="2">
         <v>1</v>
@@ -17187,7 +17190,7 @@
     </row>
     <row r="996" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B996" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C996" s="2">
         <v>2</v>
@@ -17201,7 +17204,7 @@
     </row>
     <row r="997" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B997" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C997" s="2">
         <v>2</v>
@@ -17215,7 +17218,7 @@
     </row>
     <row r="998" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B998" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C998" s="2">
         <v>3</v>
@@ -17229,7 +17232,7 @@
     </row>
     <row r="999" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B999" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C999" s="2">
         <v>3</v>
@@ -17243,7 +17246,7 @@
     </row>
     <row r="1000" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1000" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1000" s="2">
         <v>4</v>
@@ -17257,7 +17260,7 @@
     </row>
     <row r="1001" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1001" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1001" s="2">
         <v>4</v>
@@ -17271,7 +17274,7 @@
     </row>
     <row r="1002" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1002" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1002" s="2">
         <v>5</v>
@@ -17285,7 +17288,7 @@
     </row>
     <row r="1003" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1003" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1003" s="2">
         <v>5</v>
@@ -17299,7 +17302,7 @@
     </row>
     <row r="1004" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1004" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1004" s="2">
         <v>1</v>
@@ -17313,7 +17316,7 @@
     </row>
     <row r="1005" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1005" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1005" s="2">
         <v>1</v>
@@ -17327,7 +17330,7 @@
     </row>
     <row r="1006" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1006" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1006" s="2">
         <v>2</v>
@@ -17341,7 +17344,7 @@
     </row>
     <row r="1007" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1007" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1007" s="2">
         <v>2</v>
@@ -17355,7 +17358,7 @@
     </row>
     <row r="1008" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1008" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1008" s="2">
         <v>3</v>
@@ -17369,7 +17372,7 @@
     </row>
     <row r="1009" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1009" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1009" s="2">
         <v>3</v>
@@ -17383,7 +17386,7 @@
     </row>
     <row r="1010" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1010" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1010" s="2">
         <v>5</v>
@@ -17397,7 +17400,7 @@
     </row>
     <row r="1011" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1011" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1011" s="2">
         <v>5</v>
@@ -17411,7 +17414,7 @@
     </row>
     <row r="1012" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1012" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1012" s="2">
         <v>4</v>
@@ -17425,7 +17428,7 @@
     </row>
     <row r="1013" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1013" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1013" s="2">
         <v>4</v>
@@ -17439,7 +17442,7 @@
     </row>
     <row r="1014" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1014" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1014" s="2">
         <v>1</v>
@@ -17453,7 +17456,7 @@
     </row>
     <row r="1015" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1015" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1015" s="2">
         <v>1</v>
@@ -17467,7 +17470,7 @@
     </row>
     <row r="1016" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1016" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1016" s="2">
         <v>2</v>
@@ -17481,7 +17484,7 @@
     </row>
     <row r="1017" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1017" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1017" s="2">
         <v>2</v>
@@ -17495,7 +17498,7 @@
     </row>
     <row r="1018" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1018" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1018" s="2">
         <v>3</v>
@@ -17509,7 +17512,7 @@
     </row>
     <row r="1019" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1019" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1019" s="2">
         <v>3</v>
@@ -17523,7 +17526,7 @@
     </row>
     <row r="1020" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1020" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1020" s="2">
         <v>4</v>
@@ -17537,7 +17540,7 @@
     </row>
     <row r="1021" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1021" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1021" s="2">
         <v>4</v>
@@ -17551,7 +17554,7 @@
     </row>
     <row r="1022" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1022" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1022" s="2">
         <v>5</v>
@@ -17565,7 +17568,7 @@
     </row>
     <row r="1023" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1023" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1023" s="2">
         <v>5</v>
@@ -17579,7 +17582,7 @@
     </row>
     <row r="1024" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1024" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1024" s="2">
         <v>1</v>
@@ -17593,7 +17596,7 @@
     </row>
     <row r="1025" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1025" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1025" s="2">
         <v>1</v>
@@ -17607,7 +17610,7 @@
     </row>
     <row r="1026" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1026" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1026" s="2">
         <v>2</v>
@@ -17621,7 +17624,7 @@
     </row>
     <row r="1027" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1027" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1027" s="2">
         <v>2</v>
@@ -17635,7 +17638,7 @@
     </row>
     <row r="1028" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1028" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1028" s="2">
         <v>3</v>
@@ -17649,7 +17652,7 @@
     </row>
     <row r="1029" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1029" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1029" s="2">
         <v>3</v>
@@ -17663,7 +17666,7 @@
     </row>
     <row r="1030" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1030" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1030" s="2">
         <v>4</v>
@@ -17677,7 +17680,7 @@
     </row>
     <row r="1031" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1031" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1031" s="2">
         <v>4</v>
@@ -17691,7 +17694,7 @@
     </row>
     <row r="1032" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1032" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1032" s="2">
         <v>5</v>
@@ -17705,7 +17708,7 @@
     </row>
     <row r="1033" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1033" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1033" s="2">
         <v>5</v>
@@ -17719,7 +17722,7 @@
     </row>
     <row r="1034" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1034" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1034" s="2">
         <v>6</v>
@@ -17733,7 +17736,7 @@
     </row>
     <row r="1035" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1035" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1035" s="2">
         <v>6</v>
@@ -17747,7 +17750,7 @@
     </row>
     <row r="1036" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1036" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1036" s="2">
         <v>7</v>
@@ -17761,7 +17764,7 @@
     </row>
     <row r="1037" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1037" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1037" s="2">
         <v>7</v>
@@ -17775,7 +17778,7 @@
     </row>
     <row r="1038" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1038" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1038" s="2">
         <v>8</v>
@@ -17789,7 +17792,7 @@
     </row>
     <row r="1039" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1039" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1039" s="2">
         <v>8</v>
@@ -17803,7 +17806,7 @@
     </row>
     <row r="1040" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1040" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1040" s="2">
         <v>9</v>
@@ -17817,7 +17820,7 @@
     </row>
     <row r="1041" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1041" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1041" s="2">
         <v>9</v>
@@ -17831,7 +17834,7 @@
     </row>
     <row r="1042" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1042" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1042" s="2">
         <v>10</v>
@@ -17845,7 +17848,7 @@
     </row>
     <row r="1043" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1043" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1043" s="2">
         <v>10</v>
@@ -17859,7 +17862,7 @@
     </row>
     <row r="1044" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1044" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1044" s="2">
         <v>6</v>
@@ -17873,7 +17876,7 @@
     </row>
     <row r="1045" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1045" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1045" s="2">
         <v>6</v>
@@ -17887,7 +17890,7 @@
     </row>
     <row r="1046" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1046" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1046" s="2">
         <v>7</v>
@@ -17901,7 +17904,7 @@
     </row>
     <row r="1047" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1047" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1047" s="2">
         <v>7</v>
@@ -17915,7 +17918,7 @@
     </row>
     <row r="1048" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1048" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1048" s="2">
         <v>8</v>
@@ -17929,7 +17932,7 @@
     </row>
     <row r="1049" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1049" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1049" s="2">
         <v>8</v>
@@ -17943,7 +17946,7 @@
     </row>
     <row r="1050" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1050" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1050" s="2">
         <v>9</v>
@@ -17957,7 +17960,7 @@
     </row>
     <row r="1051" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1051" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1051" s="2">
         <v>9</v>
@@ -17971,7 +17974,7 @@
     </row>
     <row r="1052" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1052" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1052" s="2">
         <v>10</v>
@@ -17985,7 +17988,7 @@
     </row>
     <row r="1053" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1053" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1053" s="2">
         <v>10</v>
@@ -17999,7 +18002,7 @@
     </row>
     <row r="1054" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1054" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1054" s="2">
         <v>6</v>
@@ -18013,7 +18016,7 @@
     </row>
     <row r="1055" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1055" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1055" s="2">
         <v>6</v>
@@ -18027,7 +18030,7 @@
     </row>
     <row r="1056" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1056" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1056" s="2">
         <v>7</v>
@@ -18041,7 +18044,7 @@
     </row>
     <row r="1057" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1057" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1057" s="2">
         <v>7</v>
@@ -18055,7 +18058,7 @@
     </row>
     <row r="1058" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1058" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1058" s="2">
         <v>8</v>
@@ -18069,7 +18072,7 @@
     </row>
     <row r="1059" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1059" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1059" s="2">
         <v>8</v>
@@ -18083,7 +18086,7 @@
     </row>
     <row r="1060" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1060" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1060" s="2">
         <v>9</v>
@@ -18097,7 +18100,7 @@
     </row>
     <row r="1061" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1061" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1061" s="2">
         <v>9</v>
@@ -18111,7 +18114,7 @@
     </row>
     <row r="1062" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1062" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1062" s="2">
         <v>10</v>
@@ -18125,7 +18128,7 @@
     </row>
     <row r="1063" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1063" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1063" s="2">
         <v>10</v>
@@ -18139,7 +18142,7 @@
     </row>
     <row r="1064" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1064" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1064" s="2">
         <v>6</v>
@@ -18153,7 +18156,7 @@
     </row>
     <row r="1065" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1065" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1065" s="2">
         <v>6</v>
@@ -18167,7 +18170,7 @@
     </row>
     <row r="1066" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1066" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1066" s="2">
         <v>7</v>
@@ -18181,7 +18184,7 @@
     </row>
     <row r="1067" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1067" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1067" s="2">
         <v>7</v>
@@ -18195,7 +18198,7 @@
     </row>
     <row r="1068" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1068" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1068" s="2">
         <v>8</v>
@@ -18209,7 +18212,7 @@
     </row>
     <row r="1069" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1069" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1069" s="2">
         <v>8</v>
@@ -18223,7 +18226,7 @@
     </row>
     <row r="1070" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1070" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1070" s="2">
         <v>9</v>
@@ -18237,7 +18240,7 @@
     </row>
     <row r="1071" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1071" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1071" s="2">
         <v>9</v>
@@ -18251,7 +18254,7 @@
     </row>
     <row r="1072" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1072" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1072" s="2">
         <v>10</v>
@@ -18265,7 +18268,7 @@
     </row>
     <row r="1073" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1073" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1073" s="2">
         <v>10</v>
@@ -18279,7 +18282,7 @@
     </row>
     <row r="1074" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1074" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1074" s="2">
         <v>10</v>
@@ -18293,7 +18296,7 @@
     </row>
     <row r="1075" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1075" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1075" s="2">
         <v>10</v>
@@ -18307,7 +18310,7 @@
     </row>
     <row r="1076" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1076" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1076" s="2">
         <v>9</v>
@@ -18321,7 +18324,7 @@
     </row>
     <row r="1077" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1077" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1077" s="2">
         <v>9</v>
@@ -18335,7 +18338,7 @@
     </row>
     <row r="1078" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1078" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1078" s="2">
         <v>8</v>
@@ -18349,7 +18352,7 @@
     </row>
     <row r="1079" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1079" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1079" s="2">
         <v>8</v>
@@ -18363,7 +18366,7 @@
     </row>
     <row r="1080" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1080" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1080" s="2">
         <v>7</v>
@@ -18377,7 +18380,7 @@
     </row>
     <row r="1081" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1081" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1081" s="2">
         <v>7</v>
@@ -18391,7 +18394,7 @@
     </row>
     <row r="1082" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1082" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1082" s="2">
         <v>6</v>
@@ -18405,7 +18408,7 @@
     </row>
     <row r="1083" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1083" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1083" s="2">
         <v>6</v>
@@ -18419,7 +18422,7 @@
     </row>
     <row r="1084" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1084" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1084" s="2">
         <v>10</v>
@@ -18433,7 +18436,7 @@
     </row>
     <row r="1085" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1085" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1085" s="2">
         <v>10</v>
@@ -18447,7 +18450,7 @@
     </row>
     <row r="1086" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1086" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1086" s="2">
         <v>9</v>
@@ -18461,7 +18464,7 @@
     </row>
     <row r="1087" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1087" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1087" s="2">
         <v>9</v>
@@ -18475,7 +18478,7 @@
     </row>
     <row r="1088" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1088" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1088" s="2">
         <v>8</v>
@@ -18489,7 +18492,7 @@
     </row>
     <row r="1089" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1089" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1089" s="2">
         <v>8</v>
@@ -18503,7 +18506,7 @@
     </row>
     <row r="1090" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1090" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1090" s="2">
         <v>7</v>
@@ -18517,7 +18520,7 @@
     </row>
     <row r="1091" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1091" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1091" s="2">
         <v>7</v>
@@ -18531,7 +18534,7 @@
     </row>
     <row r="1092" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1092" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1092" s="2">
         <v>6</v>
@@ -18545,7 +18548,7 @@
     </row>
     <row r="1093" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1093" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1093" s="2">
         <v>6</v>
@@ -18559,7 +18562,7 @@
     </row>
     <row r="1094" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1094" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1094" s="9">
         <v>10</v>
@@ -18573,7 +18576,7 @@
     </row>
     <row r="1095" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1095" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1095" s="9">
         <v>10</v>
@@ -18587,7 +18590,7 @@
     </row>
     <row r="1096" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1096" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1096" s="9">
         <v>9</v>
@@ -18599,12 +18602,12 @@
         <v>22</v>
       </c>
       <c r="G1096" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="1097" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1097" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1097" s="9">
         <v>9</v>
@@ -18616,12 +18619,12 @@
         <v>23</v>
       </c>
       <c r="G1097" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="1098" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1098" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1098" s="9">
         <v>8</v>
@@ -18635,7 +18638,7 @@
     </row>
     <row r="1099" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1099" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1099" s="9">
         <v>8</v>
@@ -18649,7 +18652,7 @@
     </row>
     <row r="1100" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1100" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1100" s="9">
         <v>7</v>
@@ -18663,7 +18666,7 @@
     </row>
     <row r="1101" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1101" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1101" s="9">
         <v>7</v>
@@ -18677,7 +18680,7 @@
     </row>
     <row r="1102" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1102" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1102" s="9">
         <v>6</v>
@@ -18691,7 +18694,7 @@
     </row>
     <row r="1103" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1103" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1103" s="9">
         <v>6</v>
@@ -18705,7 +18708,7 @@
     </row>
     <row r="1104" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1104" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1104" s="9">
         <v>10</v>
@@ -18717,12 +18720,12 @@
         <v>20</v>
       </c>
       <c r="G1104" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1105" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1105" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1105" s="9">
         <v>10</v>
@@ -18734,12 +18737,12 @@
         <v>21</v>
       </c>
       <c r="G1105" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1106" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1106" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1106" s="9">
         <v>9</v>
@@ -18753,7 +18756,7 @@
     </row>
     <row r="1107" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1107" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1107" s="9">
         <v>9</v>
@@ -18767,7 +18770,7 @@
     </row>
     <row r="1108" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1108" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1108" s="9">
         <v>8</v>
@@ -18781,7 +18784,7 @@
     </row>
     <row r="1109" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1109" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1109" s="9">
         <v>8</v>
@@ -18795,7 +18798,7 @@
     </row>
     <row r="1110" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1110" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1110" s="9">
         <v>7</v>
@@ -18809,7 +18812,7 @@
     </row>
     <row r="1111" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1111" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1111" s="9">
         <v>7</v>
@@ -18823,7 +18826,7 @@
     </row>
     <row r="1112" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1112" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1112" s="9">
         <v>6</v>
@@ -18835,12 +18838,12 @@
         <v>20</v>
       </c>
       <c r="G1112" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1113" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1113" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1113" s="9">
         <v>6</v>
@@ -18852,13 +18855,13 @@
         <v>21</v>
       </c>
       <c r="G1113" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1114" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A1114" s="6"/>
       <c r="B1114" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1114" s="7"/>
       <c r="D1114" s="6">
@@ -18872,7 +18875,7 @@
     </row>
     <row r="1115" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1115" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D1115" s="2">
         <v>101</v>
@@ -18883,7 +18886,7 @@
     </row>
     <row r="1116" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1116" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C1116" s="2">
         <v>1</v>
@@ -18897,7 +18900,7 @@
     </row>
     <row r="1117" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1117" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C1117" s="2">
         <v>1</v>
@@ -18911,7 +18914,7 @@
     </row>
     <row r="1118" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1118" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C1118" s="2">
         <v>2</v>
@@ -18925,7 +18928,7 @@
     </row>
     <row r="1119" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1119" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C1119" s="2">
         <v>2</v>
@@ -18939,7 +18942,7 @@
     </row>
     <row r="1120" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1120" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C1120" s="2">
         <v>3</v>
@@ -18953,7 +18956,7 @@
     </row>
     <row r="1121" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1121" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C1121" s="2">
         <v>3</v>
@@ -18967,7 +18970,7 @@
     </row>
     <row r="1122" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1122" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C1122" s="2">
         <v>4</v>
@@ -18981,7 +18984,7 @@
     </row>
     <row r="1123" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1123" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C1123" s="2">
         <v>4</v>
@@ -18995,7 +18998,7 @@
     </row>
     <row r="1124" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1124" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C1124" s="2">
         <v>5</v>
@@ -19009,7 +19012,7 @@
     </row>
     <row r="1125" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1125" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C1125" s="2">
         <v>5</v>
@@ -19023,7 +19026,7 @@
     </row>
     <row r="1126" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1126" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C1126" s="2">
         <v>6</v>
@@ -19037,7 +19040,7 @@
     </row>
     <row r="1127" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1127" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C1127" s="2">
         <v>6</v>
@@ -19051,7 +19054,7 @@
     </row>
     <row r="1128" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1128" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C1128" s="2">
         <v>6</v>
@@ -19065,7 +19068,7 @@
     </row>
     <row r="1129" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1129" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C1129" s="2">
         <v>6</v>
@@ -19079,7 +19082,7 @@
     </row>
     <row r="1130" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1130" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C1130" s="2">
         <v>5</v>
@@ -19093,7 +19096,7 @@
     </row>
     <row r="1131" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1131" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C1131" s="2">
         <v>5</v>
@@ -19107,7 +19110,7 @@
     </row>
     <row r="1132" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1132" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C1132" s="2">
         <v>4</v>
@@ -19121,7 +19124,7 @@
     </row>
     <row r="1133" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1133" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C1133" s="2">
         <v>4</v>
@@ -19135,7 +19138,7 @@
     </row>
     <row r="1134" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1134" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C1134" s="2">
         <v>3</v>
@@ -19149,7 +19152,7 @@
     </row>
     <row r="1135" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1135" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C1135" s="2">
         <v>3</v>
@@ -19163,7 +19166,7 @@
     </row>
     <row r="1136" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1136" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C1136" s="2">
         <v>2</v>
@@ -19177,7 +19180,7 @@
     </row>
     <row r="1137" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1137" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C1137" s="2">
         <v>2</v>
@@ -19191,7 +19194,7 @@
     </row>
     <row r="1138" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1138" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C1138" s="2">
         <v>1</v>
@@ -19205,7 +19208,7 @@
     </row>
     <row r="1139" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1139" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C1139" s="2">
         <v>1</v>
@@ -19219,7 +19222,7 @@
     </row>
     <row r="1140" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1140" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C1140" s="9">
         <v>1</v>
@@ -19233,7 +19236,7 @@
     </row>
     <row r="1141" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1141" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C1141" s="9">
         <v>1</v>
@@ -19247,7 +19250,7 @@
     </row>
     <row r="1142" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1142" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C1142" s="9">
         <v>2</v>
@@ -19261,7 +19264,7 @@
     </row>
     <row r="1143" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1143" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C1143" s="9">
         <v>2</v>
@@ -19275,7 +19278,7 @@
     </row>
     <row r="1144" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1144" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C1144" s="9">
         <v>3</v>
@@ -19289,7 +19292,7 @@
     </row>
     <row r="1145" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1145" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C1145" s="9">
         <v>3</v>
@@ -19303,7 +19306,7 @@
     </row>
     <row r="1146" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1146" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C1146" s="9">
         <v>4</v>
@@ -19317,7 +19320,7 @@
     </row>
     <row r="1147" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1147" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C1147" s="9">
         <v>4</v>
@@ -19331,7 +19334,7 @@
     </row>
     <row r="1148" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1148" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C1148" s="9">
         <v>5</v>
@@ -19345,7 +19348,7 @@
     </row>
     <row r="1149" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1149" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C1149" s="9">
         <v>5</v>
@@ -19359,7 +19362,7 @@
     </row>
     <row r="1150" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1150" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C1150" s="9">
         <v>6</v>
@@ -19373,7 +19376,7 @@
     </row>
     <row r="1151" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1151" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C1151" s="9">
         <v>6</v>
@@ -19387,7 +19390,7 @@
     </row>
     <row r="1152" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1152" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C1152" s="9">
         <v>6</v>
@@ -19401,7 +19404,7 @@
     </row>
     <row r="1153" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1153" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C1153" s="9">
         <v>6</v>
@@ -19415,7 +19418,7 @@
     </row>
     <row r="1154" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1154" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C1154" s="9">
         <v>5</v>
@@ -19429,7 +19432,7 @@
     </row>
     <row r="1155" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1155" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C1155" s="9">
         <v>5</v>
@@ -19443,7 +19446,7 @@
     </row>
     <row r="1156" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1156" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C1156" s="9">
         <v>4</v>
@@ -19457,7 +19460,7 @@
     </row>
     <row r="1157" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1157" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C1157" s="9">
         <v>4</v>
@@ -19471,7 +19474,7 @@
     </row>
     <row r="1158" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1158" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C1158" s="9">
         <v>3</v>
@@ -19485,7 +19488,7 @@
     </row>
     <row r="1159" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1159" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C1159" s="9">
         <v>3</v>
@@ -19499,7 +19502,7 @@
     </row>
     <row r="1160" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1160" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C1160" s="9">
         <v>2</v>
@@ -19513,7 +19516,7 @@
     </row>
     <row r="1161" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1161" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C1161" s="9">
         <v>2</v>
@@ -19527,7 +19530,7 @@
     </row>
     <row r="1162" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1162" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C1162" s="9">
         <v>1</v>
@@ -19541,7 +19544,7 @@
     </row>
     <row r="1163" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1163" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C1163" s="9">
         <v>1</v>
@@ -19555,7 +19558,7 @@
     </row>
     <row r="1164" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1164" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C1164" s="2">
         <v>1</v>
@@ -19569,7 +19572,7 @@
     </row>
     <row r="1165" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1165" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C1165" s="2">
         <v>1</v>
@@ -19583,7 +19586,7 @@
     </row>
     <row r="1166" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1166" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C1166" s="2">
         <v>3</v>
@@ -19597,7 +19600,7 @@
     </row>
     <row r="1167" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1167" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C1167" s="2">
         <v>3</v>
@@ -19611,7 +19614,7 @@
     </row>
     <row r="1168" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1168" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C1168" s="2">
         <v>1</v>
@@ -19625,7 +19628,7 @@
     </row>
     <row r="1169" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1169" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C1169" s="2">
         <v>1</v>
@@ -19639,7 +19642,7 @@
     </row>
     <row r="1170" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1170" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C1170" s="2">
         <v>2</v>
@@ -19653,7 +19656,7 @@
     </row>
     <row r="1171" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1171" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C1171" s="2">
         <v>2</v>
@@ -19667,7 +19670,7 @@
     </row>
     <row r="1172" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1172" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C1172" s="2">
         <v>3</v>
@@ -19681,7 +19684,7 @@
     </row>
     <row r="1173" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1173" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C1173" s="2">
         <v>3</v>
@@ -19695,7 +19698,7 @@
     </row>
     <row r="1174" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1174" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C1174" s="2">
         <v>1</v>
@@ -19709,7 +19712,7 @@
     </row>
     <row r="1175" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1175" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C1175" s="2">
         <v>1</v>
@@ -19723,7 +19726,7 @@
     </row>
     <row r="1176" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1176" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C1176" s="2">
         <v>2</v>
@@ -19737,7 +19740,7 @@
     </row>
     <row r="1177" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1177" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C1177" s="2">
         <v>2</v>
@@ -19751,7 +19754,7 @@
     </row>
     <row r="1178" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1178" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C1178" s="2">
         <v>3</v>
@@ -19765,7 +19768,7 @@
     </row>
     <row r="1179" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1179" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C1179" s="2">
         <v>3</v>
@@ -19779,7 +19782,7 @@
     </row>
     <row r="1180" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1180" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C1180" s="2">
         <v>1</v>
@@ -19793,7 +19796,7 @@
     </row>
     <row r="1181" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1181" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C1181" s="2">
         <v>1</v>
@@ -19807,7 +19810,7 @@
     </row>
     <row r="1182" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1182" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C1182" s="2">
         <v>2</v>
@@ -19821,7 +19824,7 @@
     </row>
     <row r="1183" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1183" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C1183" s="2">
         <v>2</v>
@@ -19835,7 +19838,7 @@
     </row>
     <row r="1184" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1184" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C1184" s="2">
         <v>3</v>
@@ -19849,7 +19852,7 @@
     </row>
     <row r="1185" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1185" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C1185" s="2">
         <v>3</v>
@@ -19863,7 +19866,7 @@
     </row>
     <row r="1186" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1186" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C1186" s="2">
         <v>1</v>
@@ -19877,7 +19880,7 @@
     </row>
     <row r="1187" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1187" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C1187" s="2">
         <v>1</v>
@@ -19891,7 +19894,7 @@
     </row>
     <row r="1188" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1188" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C1188" s="2">
         <v>2</v>
@@ -19905,7 +19908,7 @@
     </row>
     <row r="1189" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1189" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C1189" s="2">
         <v>2</v>
@@ -19919,7 +19922,7 @@
     </row>
     <row r="1190" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1190" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C1190" s="2">
         <v>3</v>
@@ -19933,7 +19936,7 @@
     </row>
     <row r="1191" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1191" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C1191" s="2">
         <v>3</v>
@@ -19947,7 +19950,7 @@
     </row>
     <row r="1192" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1192" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D1192" s="2">
         <v>178</v>
@@ -19958,7 +19961,7 @@
     </row>
     <row r="1193" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1193" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C1193" s="2">
         <v>6</v>
@@ -19972,7 +19975,7 @@
     </row>
     <row r="1194" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1194" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C1194" s="2">
         <v>6</v>
@@ -19986,7 +19989,7 @@
     </row>
     <row r="1195" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1195" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C1195" s="2">
         <v>7</v>
@@ -20000,7 +20003,7 @@
     </row>
     <row r="1196" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1196" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C1196" s="2">
         <v>7</v>
@@ -20014,7 +20017,7 @@
     </row>
     <row r="1197" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1197" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C1197" s="2">
         <v>8</v>
@@ -20023,12 +20026,12 @@
         <v>106</v>
       </c>
       <c r="E1197" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="1198" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1198" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C1198" s="2">
         <v>8</v>
@@ -20037,12 +20040,12 @@
         <v>107</v>
       </c>
       <c r="E1198" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="1199" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1199" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C1199" s="2">
         <v>9</v>
@@ -20056,7 +20059,7 @@
     </row>
     <row r="1200" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1200" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C1200" s="2">
         <v>9</v>
@@ -20070,7 +20073,7 @@
     </row>
     <row r="1201" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1201" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C1201" s="2">
         <v>10</v>
@@ -20084,7 +20087,7 @@
     </row>
     <row r="1202" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1202" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C1202" s="2">
         <v>10</v>
@@ -20098,7 +20101,7 @@
     </row>
     <row r="1203" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1203" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C1203" s="2">
         <v>10</v>
@@ -20112,7 +20115,7 @@
     </row>
     <row r="1204" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1204" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C1204" s="2">
         <v>10</v>
@@ -20126,7 +20129,7 @@
     </row>
     <row r="1205" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1205" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C1205" s="2">
         <v>10</v>
@@ -20140,7 +20143,7 @@
     </row>
     <row r="1206" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1206" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C1206" s="2">
         <v>10</v>
@@ -20154,7 +20157,7 @@
     </row>
     <row r="1207" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1207" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C1207" s="2">
         <v>9</v>
@@ -20168,7 +20171,7 @@
     </row>
     <row r="1208" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1208" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C1208" s="2">
         <v>9</v>
@@ -20182,7 +20185,7 @@
     </row>
     <row r="1209" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1209" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C1209" s="2">
         <v>8</v>
@@ -20196,7 +20199,7 @@
     </row>
     <row r="1210" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1210" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C1210" s="2">
         <v>8</v>
@@ -20210,7 +20213,7 @@
     </row>
     <row r="1211" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1211" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C1211" s="2">
         <v>7</v>
@@ -20224,7 +20227,7 @@
     </row>
     <row r="1212" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1212" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C1212" s="2">
         <v>7</v>
@@ -20238,7 +20241,7 @@
     </row>
     <row r="1213" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1213" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C1213" s="2">
         <v>6</v>
@@ -20252,7 +20255,7 @@
     </row>
     <row r="1214" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1214" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C1214" s="2">
         <v>6</v>
@@ -20266,7 +20269,7 @@
     </row>
     <row r="1215" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1215" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C1215" s="2">
         <v>6</v>
@@ -20280,7 +20283,7 @@
     </row>
     <row r="1216" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1216" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C1216" s="2">
         <v>6</v>
@@ -20294,7 +20297,7 @@
     </row>
     <row r="1217" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1217" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C1217" s="2">
         <v>7</v>
@@ -20308,7 +20311,7 @@
     </row>
     <row r="1218" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1218" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C1218" s="2">
         <v>7</v>
@@ -20323,12 +20326,12 @@
         <v>2</v>
       </c>
       <c r="G1218" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="1219" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1219" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C1219" s="2">
         <v>8</v>
@@ -20342,7 +20345,7 @@
     </row>
     <row r="1220" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1220" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C1220" s="2">
         <v>8</v>
@@ -20357,12 +20360,12 @@
         <v>2</v>
       </c>
       <c r="G1220" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="1221" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1221" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C1221" s="2">
         <v>8</v>
@@ -20376,7 +20379,7 @@
     </row>
     <row r="1222" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1222" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C1222" s="2">
         <v>8</v>
@@ -20393,7 +20396,7 @@
     </row>
     <row r="1223" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1223" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C1223" s="2">
         <v>8</v>
@@ -20402,12 +20405,12 @@
         <v>132</v>
       </c>
       <c r="E1223" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="1224" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1224" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C1224" s="2">
         <v>8</v>
@@ -20416,12 +20419,12 @@
         <v>133</v>
       </c>
       <c r="E1224" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="1225" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1225" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C1225" s="2">
         <v>9</v>
@@ -20435,7 +20438,7 @@
     </row>
     <row r="1226" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1226" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C1226" s="2">
         <v>9</v>
@@ -20449,7 +20452,7 @@
     </row>
     <row r="1227" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1227" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C1227" s="2">
         <v>1</v>
@@ -20463,7 +20466,7 @@
     </row>
     <row r="1228" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1228" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C1228" s="2">
         <v>1</v>
@@ -20477,7 +20480,7 @@
     </row>
     <row r="1229" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1229" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C1229" s="2">
         <v>2</v>
@@ -20491,7 +20494,7 @@
     </row>
     <row r="1230" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1230" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C1230" s="2">
         <v>2</v>
@@ -20505,7 +20508,7 @@
     </row>
     <row r="1231" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1231" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C1231" s="2">
         <v>3</v>
@@ -20514,12 +20517,12 @@
         <v>140</v>
       </c>
       <c r="E1231" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="1232" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1232" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C1232" s="2">
         <v>3</v>
@@ -20528,12 +20531,12 @@
         <v>141</v>
       </c>
       <c r="E1232" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="1233" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1233" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C1233" s="2">
         <v>4</v>
@@ -20547,7 +20550,7 @@
     </row>
     <row r="1234" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1234" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C1234" s="2">
         <v>4</v>
@@ -20561,7 +20564,7 @@
     </row>
     <row r="1235" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1235" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C1235" s="2">
         <v>5</v>
@@ -20575,7 +20578,7 @@
     </row>
     <row r="1236" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1236" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C1236" s="2">
         <v>5</v>
@@ -20589,7 +20592,7 @@
     </row>
     <row r="1237" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1237" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C1237" s="2">
         <v>5</v>
@@ -20603,7 +20606,7 @@
     </row>
     <row r="1238" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1238" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C1238" s="2">
         <v>5</v>
@@ -20617,7 +20620,7 @@
     </row>
     <row r="1239" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1239" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C1239" s="2">
         <v>5</v>
@@ -20631,7 +20634,7 @@
     </row>
     <row r="1240" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1240" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C1240" s="2">
         <v>5</v>
@@ -20645,7 +20648,7 @@
     </row>
     <row r="1241" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1241" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C1241" s="2">
         <v>4</v>
@@ -20657,12 +20660,12 @@
         <v>6</v>
       </c>
       <c r="G1241" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="1242" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1242" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C1242" s="2">
         <v>4</v>
@@ -20676,7 +20679,7 @@
     </row>
     <row r="1243" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1243" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C1243" s="2">
         <v>3</v>
@@ -20690,7 +20693,7 @@
     </row>
     <row r="1244" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1244" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C1244" s="2">
         <v>3</v>
@@ -20704,7 +20707,7 @@
     </row>
     <row r="1245" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1245" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C1245" s="2">
         <v>2</v>
@@ -20718,7 +20721,7 @@
     </row>
     <row r="1246" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1246" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C1246" s="2">
         <v>2</v>
@@ -20732,7 +20735,7 @@
     </row>
     <row r="1247" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1247" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C1247" s="2">
         <v>1</v>
@@ -20746,7 +20749,7 @@
     </row>
     <row r="1248" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1248" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C1248" s="2">
         <v>1</v>
@@ -20760,7 +20763,7 @@
     </row>
     <row r="1249" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1249" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C1249" s="2">
         <v>1</v>
@@ -20774,7 +20777,7 @@
     </row>
     <row r="1250" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1250" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C1250" s="2">
         <v>1</v>
@@ -20788,7 +20791,7 @@
     </row>
     <row r="1251" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1251" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C1251" s="2">
         <v>2</v>
@@ -20802,7 +20805,7 @@
     </row>
     <row r="1252" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1252" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C1252" s="2">
         <v>2</v>
@@ -20816,7 +20819,7 @@
     </row>
     <row r="1253" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1253" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C1253" s="2">
         <v>3</v>
@@ -20828,12 +20831,12 @@
         <v>9</v>
       </c>
       <c r="G1253" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="1254" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1254" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C1254" s="2">
         <v>3</v>
@@ -20847,7 +20850,7 @@
     </row>
     <row r="1255" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1255" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C1255" s="2">
         <v>3</v>
@@ -20861,7 +20864,7 @@
     </row>
     <row r="1256" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1256" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C1256" s="2">
         <v>3</v>
@@ -20875,7 +20878,7 @@
     </row>
     <row r="1257" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1257" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C1257" s="2">
         <v>3</v>
@@ -20884,12 +20887,12 @@
         <v>166</v>
       </c>
       <c r="E1257" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="1258" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1258" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C1258" s="2">
         <v>3</v>
@@ -20898,12 +20901,12 @@
         <v>167</v>
       </c>
       <c r="E1258" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="1259" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1259" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C1259" s="2">
         <v>4</v>
@@ -20917,7 +20920,7 @@
     </row>
     <row r="1260" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1260" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C1260" s="2">
         <v>4</v>
@@ -20929,12 +20932,12 @@
         <v>10</v>
       </c>
       <c r="G1260" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="1261" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1261" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C1261" s="2">
         <v>5</v>
@@ -20948,7 +20951,7 @@
     </row>
     <row r="1262" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1262" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C1262" s="2">
         <v>5</v>
@@ -20962,7 +20965,7 @@
     </row>
     <row r="1263" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1263" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C1263" s="2">
         <v>4</v>
@@ -20976,7 +20979,7 @@
     </row>
     <row r="1264" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1264" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C1264" s="2">
         <v>4</v>
@@ -20990,7 +20993,7 @@
     </row>
     <row r="1265" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1265" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C1265" s="2">
         <v>3</v>
@@ -21004,7 +21007,7 @@
     </row>
     <row r="1266" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1266" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C1266" s="2">
         <v>3</v>
@@ -21018,7 +21021,7 @@
     </row>
     <row r="1267" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1267" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C1267" s="2">
         <v>2</v>
@@ -21032,7 +21035,7 @@
     </row>
     <row r="1268" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1268" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C1268" s="2">
         <v>2</v>
@@ -21046,7 +21049,7 @@
     </row>
     <row r="1269" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1269" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C1269" s="2">
         <v>1</v>
@@ -21060,7 +21063,7 @@
     </row>
     <row r="1270" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1270" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C1270" s="2">
         <v>1</v>
@@ -21074,7 +21077,7 @@
     </row>
     <row r="1271" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1271" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C1271" s="2">
         <v>1</v>
@@ -21088,7 +21091,7 @@
     </row>
     <row r="1272" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1272" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C1272" s="2">
         <v>1</v>
@@ -21102,7 +21105,7 @@
     </row>
     <row r="1273" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1273" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C1273" s="2">
         <v>2</v>
@@ -21116,7 +21119,7 @@
     </row>
     <row r="1274" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1274" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C1274" s="2">
         <v>2</v>
@@ -21130,7 +21133,7 @@
     </row>
     <row r="1275" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1275" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C1275" s="2">
         <v>3</v>
@@ -21144,7 +21147,7 @@
     </row>
     <row r="1276" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1276" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C1276" s="2">
         <v>3</v>
@@ -21158,7 +21161,7 @@
     </row>
     <row r="1277" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1277" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C1277" s="2">
         <v>4</v>
@@ -21172,7 +21175,7 @@
     </row>
     <row r="1278" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1278" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C1278" s="2">
         <v>4</v>
@@ -21186,7 +21189,7 @@
     </row>
     <row r="1279" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1279" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C1279" s="2">
         <v>5</v>
@@ -21200,7 +21203,7 @@
     </row>
     <row r="1280" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1280" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C1280" s="2">
         <v>5</v>
@@ -21214,7 +21217,7 @@
     </row>
     <row r="1281" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1281" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C1281" s="2">
         <v>5</v>
@@ -21228,7 +21231,7 @@
     </row>
     <row r="1282" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1282" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C1282" s="2">
         <v>5</v>
@@ -21242,7 +21245,7 @@
     </row>
     <row r="1283" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1283" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C1283" s="2">
         <v>4</v>
@@ -21256,7 +21259,7 @@
     </row>
     <row r="1284" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1284" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C1284" s="2">
         <v>4</v>
@@ -21270,7 +21273,7 @@
     </row>
     <row r="1285" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1285" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C1285" s="2">
         <v>3</v>
@@ -21284,7 +21287,7 @@
     </row>
     <row r="1286" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1286" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C1286" s="2">
         <v>3</v>
@@ -21298,7 +21301,7 @@
     </row>
     <row r="1287" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1287" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C1287" s="2">
         <v>2</v>
@@ -21312,7 +21315,7 @@
     </row>
     <row r="1288" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1288" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C1288" s="2">
         <v>2</v>
@@ -21326,7 +21329,7 @@
     </row>
     <row r="1289" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1289" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C1289" s="2">
         <v>1</v>
@@ -21340,7 +21343,7 @@
     </row>
     <row r="1290" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1290" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C1290" s="2">
         <v>1</v>
@@ -21354,51 +21357,51 @@
     </row>
     <row r="1291" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1291" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D1291" s="2">
         <v>200</v>
       </c>
       <c r="G1291" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="1292" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1292" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D1292" s="2">
         <v>201</v>
       </c>
       <c r="G1292" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="1293" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1293" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D1293" s="2">
         <v>202</v>
       </c>
       <c r="G1293" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="1294" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1294" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D1294" s="2">
         <v>203</v>
       </c>
       <c r="G1294" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="1295" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1295" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C1295" s="2">
         <v>1</v>
@@ -21412,7 +21415,7 @@
     </row>
     <row r="1296" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1296" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C1296" s="2">
         <v>1</v>
@@ -21426,7 +21429,7 @@
     </row>
     <row r="1297" spans="1:29" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1297" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C1297" s="2">
         <v>2</v>
@@ -21440,7 +21443,7 @@
     </row>
     <row r="1298" spans="1:29" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1298" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C1298" s="2">
         <v>2</v>
@@ -21454,7 +21457,7 @@
     </row>
     <row r="1299" spans="1:29" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1299" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C1299" s="2">
         <v>3</v>
@@ -21468,7 +21471,7 @@
     </row>
     <row r="1300" spans="1:29" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1300" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C1300" s="2">
         <v>3</v>
@@ -21482,7 +21485,7 @@
     </row>
     <row r="1301" spans="1:29" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1301" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C1301" s="2">
         <v>4</v>
@@ -21496,7 +21499,7 @@
     </row>
     <row r="1302" spans="1:29" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1302" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C1302" s="2">
         <v>4</v>
@@ -21510,7 +21513,7 @@
     </row>
     <row r="1303" spans="1:29" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1303" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C1303" s="2">
         <v>5</v>
@@ -21524,7 +21527,7 @@
     </row>
     <row r="1304" spans="1:29" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1304" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C1304" s="2">
         <v>5</v>
@@ -21538,7 +21541,7 @@
     </row>
     <row r="1305" spans="1:29" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1305" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D1305" s="2">
         <v>214</v>
@@ -21550,7 +21553,7 @@
     <row r="1306" spans="1:29" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A1306" s="10"/>
       <c r="B1306" s="10" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C1306" s="10"/>
       <c r="D1306" s="10">
@@ -21586,7 +21589,7 @@
     </row>
     <row r="1307" spans="1:29" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1307" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C1307" s="2">
         <v>1</v>
@@ -21600,7 +21603,7 @@
     </row>
     <row r="1308" spans="1:29" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1308" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C1308" s="2">
         <v>1</v>
@@ -21614,7 +21617,7 @@
     </row>
     <row r="1309" spans="1:29" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1309" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C1309" s="2">
         <v>2</v>
@@ -21628,7 +21631,7 @@
     </row>
     <row r="1310" spans="1:29" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1310" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C1310" s="2">
         <v>2</v>
@@ -21642,7 +21645,7 @@
     </row>
     <row r="1311" spans="1:29" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1311" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C1311" s="2">
         <v>3</v>
@@ -21656,7 +21659,7 @@
     </row>
     <row r="1312" spans="1:29" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1312" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C1312" s="2">
         <v>3</v>
@@ -21670,7 +21673,7 @@
     </row>
     <row r="1313" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1313" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C1313" s="2">
         <v>3</v>
@@ -21684,7 +21687,7 @@
     </row>
     <row r="1314" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1314" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C1314" s="2">
         <v>3</v>
@@ -21698,7 +21701,7 @@
     </row>
     <row r="1315" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1315" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C1315" s="2">
         <v>2</v>
@@ -21712,7 +21715,7 @@
     </row>
     <row r="1316" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1316" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C1316" s="2">
         <v>2</v>
@@ -21726,29 +21729,29 @@
     </row>
     <row r="1317" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1317" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="D1317" s="2">
         <v>112</v>
       </c>
       <c r="F1317" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="1318" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1318" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="D1318" s="2">
         <v>113</v>
       </c>
       <c r="F1318" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="1319" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1319" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C1319" s="2">
         <v>1</v>
@@ -21762,7 +21765,7 @@
     </row>
     <row r="1320" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1320" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C1320" s="2">
         <v>1</v>
@@ -21776,7 +21779,7 @@
     </row>
     <row r="1321" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1321" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C1321" s="2">
         <v>1</v>
@@ -21790,7 +21793,7 @@
     </row>
     <row r="1322" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1322" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C1322" s="2">
         <v>1</v>
@@ -21804,7 +21807,7 @@
     </row>
     <row r="1323" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1323" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C1323" s="2">
         <v>2</v>
@@ -21818,7 +21821,7 @@
     </row>
     <row r="1324" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1324" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C1324" s="2">
         <v>2</v>
@@ -21832,7 +21835,7 @@
     </row>
     <row r="1325" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1325" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C1325" s="2">
         <v>3</v>
@@ -21846,7 +21849,7 @@
     </row>
     <row r="1326" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1326" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C1326" s="2">
         <v>3</v>
@@ -21860,7 +21863,7 @@
     </row>
     <row r="1327" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1327" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C1327" s="2">
         <v>3</v>
@@ -21874,7 +21877,7 @@
     </row>
     <row r="1328" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1328" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C1328" s="2">
         <v>3</v>
@@ -21888,7 +21891,7 @@
     </row>
     <row r="1329" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1329" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C1329" s="2">
         <v>2</v>
@@ -21902,7 +21905,7 @@
     </row>
     <row r="1330" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1330" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C1330" s="2">
         <v>2</v>
@@ -21916,7 +21919,7 @@
     </row>
     <row r="1331" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1331" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C1331" s="2">
         <v>1</v>
@@ -21930,7 +21933,7 @@
     </row>
     <row r="1332" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1332" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C1332" s="2">
         <v>1</v>
@@ -21944,7 +21947,7 @@
     </row>
     <row r="1333" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1333" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C1333" s="2">
         <v>4</v>
@@ -21958,7 +21961,7 @@
     </row>
     <row r="1334" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1334" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C1334" s="2">
         <v>4</v>
@@ -21972,7 +21975,7 @@
     </row>
     <row r="1335" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1335" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C1335" s="2">
         <v>5</v>
@@ -21986,7 +21989,7 @@
     </row>
     <row r="1336" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1336" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C1336" s="2">
         <v>5</v>
@@ -22000,7 +22003,7 @@
     </row>
     <row r="1337" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1337" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C1337" s="2">
         <v>6</v>
@@ -22014,7 +22017,7 @@
     </row>
     <row r="1338" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1338" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C1338" s="2">
         <v>6</v>
@@ -22028,7 +22031,7 @@
     </row>
     <row r="1339" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1339" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C1339" s="2">
         <v>6</v>
@@ -22042,7 +22045,7 @@
     </row>
     <row r="1340" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1340" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C1340" s="2">
         <v>6</v>
@@ -22056,7 +22059,7 @@
     </row>
     <row r="1341" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1341" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C1341" s="2">
         <v>5</v>
@@ -22070,7 +22073,7 @@
     </row>
     <row r="1342" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1342" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C1342" s="2">
         <v>5</v>
@@ -22084,7 +22087,7 @@
     </row>
     <row r="1343" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1343" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C1343" s="2">
         <v>4</v>
@@ -22098,7 +22101,7 @@
     </row>
     <row r="1344" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1344" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C1344" s="2">
         <v>4</v>
@@ -22112,7 +22115,7 @@
     </row>
     <row r="1345" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1345" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C1345" s="2">
         <v>4</v>
@@ -22126,7 +22129,7 @@
     </row>
     <row r="1346" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1346" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C1346" s="2">
         <v>4</v>
@@ -22140,7 +22143,7 @@
     </row>
     <row r="1347" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1347" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C1347" s="2">
         <v>5</v>
@@ -22154,7 +22157,7 @@
     </row>
     <row r="1348" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1348" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C1348" s="2">
         <v>5</v>
@@ -22168,7 +22171,7 @@
     </row>
     <row r="1349" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1349" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C1349" s="2">
         <v>6</v>
@@ -22182,7 +22185,7 @@
     </row>
     <row r="1350" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1350" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C1350" s="2">
         <v>6</v>
@@ -22196,7 +22199,7 @@
     </row>
     <row r="1351" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1351" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C1351" s="2">
         <v>6</v>
@@ -22210,7 +22213,7 @@
     </row>
     <row r="1352" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1352" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C1352" s="2">
         <v>6</v>
@@ -22224,7 +22227,7 @@
     </row>
     <row r="1353" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1353" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C1353" s="2">
         <v>5</v>
@@ -22238,7 +22241,7 @@
     </row>
     <row r="1354" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1354" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C1354" s="2">
         <v>5</v>
@@ -22252,7 +22255,7 @@
     </row>
     <row r="1355" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1355" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C1355" s="2">
         <v>4</v>
@@ -22266,7 +22269,7 @@
     </row>
     <row r="1356" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1356" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C1356" s="2">
         <v>4</v>
@@ -22280,7 +22283,7 @@
     </row>
     <row r="1357" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1357" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C1357" s="2">
         <v>4</v>
@@ -22292,12 +22295,12 @@
         <v>29</v>
       </c>
       <c r="G1357" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="1358" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1358" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C1358" s="2">
         <v>4</v>
@@ -22311,7 +22314,7 @@
     </row>
     <row r="1359" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1359" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C1359" s="2">
         <v>5</v>
@@ -22325,7 +22328,7 @@
     </row>
     <row r="1360" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1360" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C1360" s="2">
         <v>5</v>
@@ -22339,7 +22342,7 @@
     </row>
     <row r="1361" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1361" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C1361" s="2">
         <v>6</v>
@@ -22353,7 +22356,7 @@
     </row>
     <row r="1362" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1362" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C1362" s="2">
         <v>6</v>
@@ -22367,7 +22370,7 @@
     </row>
     <row r="1363" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1363" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C1363" s="2">
         <v>6</v>
@@ -22381,7 +22384,7 @@
     </row>
     <row r="1364" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1364" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C1364" s="2">
         <v>6</v>
@@ -22395,7 +22398,7 @@
     </row>
     <row r="1365" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1365" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C1365" s="2">
         <v>5</v>
@@ -22409,7 +22412,7 @@
     </row>
     <row r="1366" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1366" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C1366" s="2">
         <v>5</v>
@@ -22423,7 +22426,7 @@
     </row>
     <row r="1367" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1367" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C1367" s="2">
         <v>4</v>
@@ -22437,7 +22440,7 @@
     </row>
     <row r="1368" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1368" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C1368" s="2">
         <v>4</v>
@@ -22451,7 +22454,7 @@
     </row>
     <row r="1369" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1369" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C1369" s="2">
         <v>4</v>
@@ -22465,7 +22468,7 @@
     </row>
     <row r="1370" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1370" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C1370" s="2">
         <v>4</v>
@@ -22479,7 +22482,7 @@
     </row>
     <row r="1371" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1371" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C1371" s="2">
         <v>5</v>
@@ -22493,7 +22496,7 @@
     </row>
     <row r="1372" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1372" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C1372" s="2">
         <v>5</v>
@@ -22507,7 +22510,7 @@
     </row>
     <row r="1373" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1373" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C1373" s="2">
         <v>6</v>
@@ -22521,7 +22524,7 @@
     </row>
     <row r="1374" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1374" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C1374" s="2">
         <v>6</v>
@@ -22535,7 +22538,7 @@
     </row>
     <row r="1375" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1375" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C1375" s="2">
         <v>6</v>
@@ -22549,7 +22552,7 @@
     </row>
     <row r="1376" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1376" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C1376" s="2">
         <v>6</v>
@@ -22563,7 +22566,7 @@
     </row>
     <row r="1377" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1377" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C1377" s="2">
         <v>5</v>
@@ -22577,7 +22580,7 @@
     </row>
     <row r="1378" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1378" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C1378" s="2">
         <v>5</v>
@@ -22591,7 +22594,7 @@
     </row>
     <row r="1379" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1379" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C1379" s="2">
         <v>4</v>
@@ -22605,7 +22608,7 @@
     </row>
     <row r="1380" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1380" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C1380" s="2">
         <v>4</v>
@@ -22619,7 +22622,7 @@
     </row>
     <row r="1381" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1381" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="D1381" s="2">
         <v>176</v>
@@ -22629,6 +22632,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AC1381" xr:uid="{72D9BBEF-D41B-3943-88E3-081E080D25A5}"/>
   <mergeCells count="1">
     <mergeCell ref="G109:G110"/>
   </mergeCells>

--- a/raw_ts_data/fd/fd12_ts2.xlsx
+++ b/raw_ts_data/fd/fd12_ts2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ncw02\Downloads\IGEA\raw_ts_data\fd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9004E96-A502-471E-945B-0F2453CA0A24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24DB12F5-1CBB-4F94-B032-B18FC1E21F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E68C062C-7D11-714A-B9EB-02BD676A21BD}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2834" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2836" uniqueCount="94">
   <si>
     <t>Reach</t>
   </si>
@@ -314,6 +314,12 @@
   <si>
     <t>TP09</t>
   </si>
+  <si>
+    <t>ERRORCODE</t>
+  </si>
+  <si>
+    <t>ADJUSTMENT</t>
+  </si>
 </sst>
 </file>
 
@@ -398,7 +404,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -414,10 +420,13 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -738,13 +747,13 @@
   <dimension ref="A1:AC1381"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <pane ySplit="1" topLeftCell="A426" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F436" sqref="F436"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.21875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="7" max="7" width="75" customWidth="1"/>
+    <col min="7" max="7" width="18.109375" style="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -764,11 +773,15 @@
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+      <c r="H1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -809,6 +822,9 @@
       <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="H2" s="2">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
@@ -829,6 +845,9 @@
       <c r="G3" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="H3" s="2">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
@@ -849,6 +868,9 @@
       <c r="G4" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="H4" s="2">
+        <v>8</v>
+      </c>
     </row>
     <row r="5" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
@@ -869,6 +891,9 @@
       <c r="G5" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="H5" s="2">
+        <v>8</v>
+      </c>
     </row>
     <row r="6" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
@@ -889,6 +914,9 @@
       <c r="G6" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="H6" s="2">
+        <v>8</v>
+      </c>
     </row>
     <row r="7" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
@@ -909,6 +937,9 @@
       <c r="G7" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="H7" s="2">
+        <v>8</v>
+      </c>
     </row>
     <row r="8" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
@@ -1916,7 +1947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B65" s="2" t="s">
         <v>5</v>
       </c>
@@ -1933,7 +1964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B66" s="2" t="s">
         <v>5</v>
       </c>
@@ -1950,7 +1981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B67" s="2" t="s">
         <v>5</v>
       </c>
@@ -1967,7 +1998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B68" s="2" t="s">
         <v>5</v>
       </c>
@@ -1984,7 +2015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B69" s="2" t="s">
         <v>5</v>
       </c>
@@ -2001,7 +2032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B70" s="2" t="s">
         <v>5</v>
       </c>
@@ -2020,8 +2051,11 @@
       <c r="G70" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="71" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H70" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B71" s="2" t="s">
         <v>5</v>
       </c>
@@ -2040,8 +2074,11 @@
       <c r="G71" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="72" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H71" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B72" s="2" t="s">
         <v>5</v>
       </c>
@@ -2060,8 +2097,11 @@
       <c r="G72" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="73" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H72" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B73" s="2" t="s">
         <v>5</v>
       </c>
@@ -2080,8 +2120,11 @@
       <c r="G73" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="74" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H73" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B74" s="2" t="s">
         <v>5</v>
       </c>
@@ -2100,8 +2143,11 @@
       <c r="G74" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="75" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H74" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B75" s="2" t="s">
         <v>5</v>
       </c>
@@ -2120,8 +2166,11 @@
       <c r="G75" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="76" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H75" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B76" s="2" t="s">
         <v>5</v>
       </c>
@@ -2140,8 +2189,11 @@
       <c r="G76" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="77" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H76" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B77" s="2" t="s">
         <v>5</v>
       </c>
@@ -2158,7 +2210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B78" s="2" t="s">
         <v>5</v>
       </c>
@@ -2175,7 +2227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B79" s="2" t="s">
         <v>5</v>
       </c>
@@ -2192,7 +2244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B80" s="2" t="s">
         <v>5</v>
       </c>
@@ -2277,7 +2329,7 @@
       <c r="F84" s="6">
         <v>1</v>
       </c>
-      <c r="G84" s="6"/>
+      <c r="G84" s="13"/>
       <c r="H84" s="6"/>
       <c r="I84" s="6"/>
       <c r="J84" s="6"/>
@@ -2505,7 +2557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B97" s="2" t="s">
         <v>88</v>
       </c>
@@ -2522,7 +2574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B98" s="2" t="s">
         <v>88</v>
       </c>
@@ -2538,11 +2590,14 @@
       <c r="F98" s="2">
         <v>3</v>
       </c>
-      <c r="G98" s="2" t="s">
+      <c r="G98" s="14" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="99" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H98" s="14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B99" s="2" t="s">
         <v>88</v>
       </c>
@@ -2559,7 +2614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B100" s="2" t="s">
         <v>88</v>
       </c>
@@ -2576,7 +2631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B101" s="2" t="s">
         <v>88</v>
       </c>
@@ -2593,7 +2648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B102" s="2" t="s">
         <v>88</v>
       </c>
@@ -2609,11 +2664,14 @@
       <c r="F102" s="2">
         <v>4</v>
       </c>
-      <c r="G102" s="2" t="s">
+      <c r="G102" s="14" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="103" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H102" s="14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B103" s="2" t="s">
         <v>88</v>
       </c>
@@ -2630,7 +2688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B104" s="2" t="s">
         <v>88</v>
       </c>
@@ -2647,7 +2705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B105" s="2" t="s">
         <v>88</v>
       </c>
@@ -2664,7 +2722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B106" s="2" t="s">
         <v>88</v>
       </c>
@@ -2681,7 +2739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B107" s="2" t="s">
         <v>88</v>
       </c>
@@ -2698,7 +2756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B108" s="2" t="s">
         <v>88</v>
       </c>
@@ -2715,7 +2773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B109" s="2" t="s">
         <v>88</v>
       </c>
@@ -2731,11 +2789,11 @@
       <c r="F109" s="2">
         <v>1</v>
       </c>
-      <c r="G109" s="11" t="s">
+      <c r="G109" s="15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="110" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B110" s="2" t="s">
         <v>88</v>
       </c>
@@ -2751,9 +2809,9 @@
       <c r="F110" s="2">
         <v>1</v>
       </c>
-      <c r="G110" s="12"/>
-    </row>
-    <row r="111" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="G110" s="16"/>
+    </row>
+    <row r="111" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B111" s="2" t="s">
         <v>88</v>
       </c>
@@ -2770,7 +2828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B112" s="2" t="s">
         <v>88</v>
       </c>
@@ -3007,7 +3065,7 @@
       <c r="F125" s="2">
         <v>1</v>
       </c>
-      <c r="G125" s="2" t="s">
+      <c r="G125" s="14" t="s">
         <v>40</v>
       </c>
     </row>
@@ -4369,7 +4427,7 @@
       <c r="F205" s="6">
         <v>1</v>
       </c>
-      <c r="G205" s="6"/>
+      <c r="G205" s="13"/>
       <c r="H205" s="6"/>
       <c r="I205" s="6"/>
       <c r="J205" s="6"/>
@@ -4698,7 +4756,7 @@
       <c r="F223" s="2">
         <v>1</v>
       </c>
-      <c r="G223" s="2" t="s">
+      <c r="G223" s="14" t="s">
         <v>42</v>
       </c>
     </row>
@@ -4973,7 +5031,7 @@
       <c r="F239" s="2">
         <v>1</v>
       </c>
-      <c r="G239" s="2" t="s">
+      <c r="G239" s="14" t="s">
         <v>43</v>
       </c>
     </row>
@@ -5588,7 +5646,7 @@
       <c r="F275" s="2">
         <v>1</v>
       </c>
-      <c r="G275" s="2" t="s">
+      <c r="G275" s="14" t="s">
         <v>44</v>
       </c>
     </row>
@@ -6272,7 +6330,7 @@
       <c r="F315" s="6">
         <v>1</v>
       </c>
-      <c r="G315" s="6"/>
+      <c r="G315" s="13"/>
       <c r="H315" s="6"/>
       <c r="I315" s="6"/>
       <c r="J315" s="6"/>
@@ -7191,7 +7249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="369" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B369" s="2" t="s">
         <v>87</v>
       </c>
@@ -7208,7 +7266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="370" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B370" s="2" t="s">
         <v>87</v>
       </c>
@@ -7225,7 +7283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="371" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B371" s="2" t="s">
         <v>87</v>
       </c>
@@ -7242,7 +7300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="372" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B372" s="2" t="s">
         <v>87</v>
       </c>
@@ -7259,7 +7317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="373" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B373" s="2" t="s">
         <v>87</v>
       </c>
@@ -7276,7 +7334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="374" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B374" s="2" t="s">
         <v>87</v>
       </c>
@@ -7293,7 +7351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="375" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B375" s="2" t="s">
         <v>87</v>
       </c>
@@ -7309,11 +7367,14 @@
       <c r="F375" s="2">
         <v>1</v>
       </c>
-      <c r="G375" s="2" t="s">
+      <c r="G375" s="14" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="376" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H375" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="376" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B376" s="2" t="s">
         <v>87</v>
       </c>
@@ -7329,11 +7390,12 @@
       <c r="F376" s="2">
         <v>1</v>
       </c>
-      <c r="G376" s="2" t="s">
+      <c r="G376" s="14" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="377" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H376" s="14"/>
+    </row>
+    <row r="377" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B377" s="2" t="s">
         <v>87</v>
       </c>
@@ -7350,7 +7412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="378" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B378" s="2" t="s">
         <v>87</v>
       </c>
@@ -7367,7 +7429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="379" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B379" s="2" t="s">
         <v>87</v>
       </c>
@@ -7384,7 +7446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="380" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B380" s="2" t="s">
         <v>87</v>
       </c>
@@ -7401,7 +7463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="381" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B381" s="2" t="s">
         <v>87</v>
       </c>
@@ -7418,7 +7480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="382" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B382" s="2" t="s">
         <v>87</v>
       </c>
@@ -7435,7 +7497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="383" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B383" s="2" t="s">
         <v>87</v>
       </c>
@@ -7452,7 +7514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="384" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B384" s="2" t="s">
         <v>87</v>
       </c>
@@ -7701,7 +7763,7 @@
         <v>183</v>
       </c>
       <c r="E398" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F398" s="2">
         <v>1</v>
@@ -7718,7 +7780,7 @@
         <v>184</v>
       </c>
       <c r="E399" s="8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F399" s="2">
         <v>1</v>
@@ -7735,7 +7797,7 @@
         <v>185</v>
       </c>
       <c r="E400" s="8" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F400" s="2">
         <v>1</v>
@@ -7752,7 +7814,7 @@
         <v>186</v>
       </c>
       <c r="E401" s="8" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F401" s="2">
         <v>1</v>
@@ -7769,7 +7831,7 @@
         <v>187</v>
       </c>
       <c r="E402" s="8" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="F402" s="2">
         <v>1</v>
@@ -7786,7 +7848,7 @@
         <v>188</v>
       </c>
       <c r="E403" s="8" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="F403" s="2">
         <v>1</v>
@@ -7803,7 +7865,7 @@
         <v>189</v>
       </c>
       <c r="E404" s="8" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="F404" s="2">
         <v>1</v>
@@ -7820,7 +7882,7 @@
         <v>190</v>
       </c>
       <c r="E405" s="8" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="F405" s="2">
         <v>1</v>
@@ -7837,7 +7899,7 @@
         <v>191</v>
       </c>
       <c r="E406" s="8" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="F406" s="2">
         <v>1</v>
@@ -7854,7 +7916,7 @@
         <v>192</v>
       </c>
       <c r="E407" s="8" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="F407" s="2">
         <v>1</v>
@@ -7871,7 +7933,7 @@
         <v>193</v>
       </c>
       <c r="E408" s="8" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="F408" s="2">
         <v>1</v>
@@ -7888,7 +7950,7 @@
         <v>194</v>
       </c>
       <c r="E409" s="8" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="F409" s="2">
         <v>1</v>
@@ -7905,7 +7967,7 @@
         <v>195</v>
       </c>
       <c r="E410" s="8" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F410" s="2">
         <v>1</v>
@@ -7922,7 +7984,7 @@
         <v>196</v>
       </c>
       <c r="E411" s="8" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F411" s="2">
         <v>1</v>
@@ -7939,7 +8001,7 @@
         <v>197</v>
       </c>
       <c r="E412" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F412" s="2">
         <v>1</v>
@@ -7956,7 +8018,7 @@
         <v>198</v>
       </c>
       <c r="E413" s="8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F413" s="2">
         <v>1</v>
@@ -7973,7 +8035,7 @@
         <v>199</v>
       </c>
       <c r="E414" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F414" s="2">
         <v>1</v>
@@ -7990,7 +8052,7 @@
         <v>200</v>
       </c>
       <c r="E415" s="8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F415" s="2">
         <v>1</v>
@@ -8007,7 +8069,7 @@
         <v>201</v>
       </c>
       <c r="E416" s="8" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F416" s="2">
         <v>1</v>
@@ -8024,7 +8086,7 @@
         <v>202</v>
       </c>
       <c r="E417" s="8" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F417" s="2">
         <v>1</v>
@@ -8041,7 +8103,7 @@
         <v>203</v>
       </c>
       <c r="E418" s="8" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="F418" s="2">
         <v>1</v>
@@ -8058,7 +8120,7 @@
         <v>204</v>
       </c>
       <c r="E419" s="8" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="F419" s="2">
         <v>1</v>
@@ -8075,7 +8137,7 @@
         <v>205</v>
       </c>
       <c r="E420" s="8" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="F420" s="2">
         <v>1</v>
@@ -8092,7 +8154,7 @@
         <v>206</v>
       </c>
       <c r="E421" s="8" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="F421" s="2">
         <v>1</v>
@@ -8109,7 +8171,7 @@
         <v>207</v>
       </c>
       <c r="E422" s="8" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="F422" s="2">
         <v>1</v>
@@ -8126,12 +8188,12 @@
         <v>208</v>
       </c>
       <c r="E423" s="8" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="F423" s="2">
         <v>1</v>
       </c>
-      <c r="G423" s="2" t="s">
+      <c r="G423" s="14" t="s">
         <v>48</v>
       </c>
     </row>
@@ -8146,7 +8208,7 @@
         <v>209</v>
       </c>
       <c r="E424" s="8" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="F424" s="2">
         <v>1</v>
@@ -8163,7 +8225,7 @@
         <v>210</v>
       </c>
       <c r="E425" s="8" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="F425" s="2">
         <v>1</v>
@@ -8180,7 +8242,7 @@
         <v>211</v>
       </c>
       <c r="E426" s="8" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F426" s="2">
         <v>1</v>
@@ -8197,7 +8259,7 @@
         <v>212</v>
       </c>
       <c r="E427" s="8" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F427" s="2">
         <v>1</v>
@@ -8214,7 +8276,7 @@
         <v>213</v>
       </c>
       <c r="E428" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F428" s="2">
         <v>1</v>
@@ -8231,7 +8293,7 @@
         <v>214</v>
       </c>
       <c r="E429" s="8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F429" s="2">
         <v>1</v>
@@ -8248,7 +8310,7 @@
         <v>215</v>
       </c>
       <c r="E430" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F430" s="2">
         <v>1</v>
@@ -8265,7 +8327,7 @@
         <v>216</v>
       </c>
       <c r="E431" s="8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F431" s="2">
         <v>1</v>
@@ -8282,7 +8344,7 @@
         <v>217</v>
       </c>
       <c r="E432" s="8" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F432" s="2">
         <v>1</v>
@@ -8299,7 +8361,7 @@
         <v>218</v>
       </c>
       <c r="E433" s="8" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F433" s="2">
         <v>1</v>
@@ -8316,7 +8378,7 @@
         <v>219</v>
       </c>
       <c r="E434" s="8" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="F434" s="2">
         <v>1</v>
@@ -8333,7 +8395,7 @@
         <v>220</v>
       </c>
       <c r="E435" s="8" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="F435" s="2">
         <v>1</v>
@@ -8350,7 +8412,7 @@
         <v>221</v>
       </c>
       <c r="E436" s="8" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="F436" s="2">
         <v>1</v>
@@ -8367,7 +8429,7 @@
         <v>222</v>
       </c>
       <c r="E437" s="8" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="F437" s="2">
         <v>1</v>
@@ -8386,7 +8448,7 @@
         <v>41</v>
       </c>
       <c r="F438" s="6"/>
-      <c r="G438" s="6"/>
+      <c r="G438" s="13"/>
       <c r="H438" s="6"/>
       <c r="I438" s="6"/>
       <c r="J438" s="6"/>
@@ -9083,7 +9145,7 @@
       <c r="F478" s="2">
         <v>1</v>
       </c>
-      <c r="G478" s="2" t="s">
+      <c r="G478" s="14" t="s">
         <v>50</v>
       </c>
     </row>
@@ -9460,7 +9522,7 @@
       <c r="F500" s="2">
         <v>1</v>
       </c>
-      <c r="G500" s="2" t="s">
+      <c r="G500" s="14" t="s">
         <v>52</v>
       </c>
     </row>
@@ -9480,7 +9542,7 @@
       <c r="F501" s="2">
         <v>1</v>
       </c>
-      <c r="G501" s="2" t="s">
+      <c r="G501" s="14" t="s">
         <v>52</v>
       </c>
     </row>
@@ -9500,7 +9562,7 @@
       <c r="F502" s="2">
         <v>1</v>
       </c>
-      <c r="G502" s="2" t="s">
+      <c r="G502" s="14" t="s">
         <v>52</v>
       </c>
     </row>
@@ -9520,7 +9582,7 @@
       <c r="F503" s="2">
         <v>1</v>
       </c>
-      <c r="G503" s="2" t="s">
+      <c r="G503" s="14" t="s">
         <v>52</v>
       </c>
     </row>
@@ -9537,7 +9599,7 @@
         <v>41</v>
       </c>
       <c r="F504" s="6"/>
-      <c r="G504" s="6"/>
+      <c r="G504" s="13"/>
       <c r="H504" s="6"/>
       <c r="I504" s="6"/>
       <c r="J504" s="6"/>
@@ -9945,7 +10007,7 @@
       <c r="F527" s="2">
         <v>1</v>
       </c>
-      <c r="G527" s="2" t="s">
+      <c r="G527" s="14" t="s">
         <v>55</v>
       </c>
     </row>
@@ -10676,7 +10738,7 @@
         <v>41</v>
       </c>
       <c r="F570" s="6"/>
-      <c r="G570" s="6"/>
+      <c r="G570" s="13"/>
       <c r="H570" s="6"/>
       <c r="I570" s="6"/>
       <c r="J570" s="6"/>
@@ -11618,7 +11680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="625" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="625" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B625" s="2" t="s">
         <v>86</v>
       </c>
@@ -11635,7 +11697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="626" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="626" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B626" s="2" t="s">
         <v>86</v>
       </c>
@@ -11652,7 +11714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="627" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="627" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B627" s="2" t="s">
         <v>86</v>
       </c>
@@ -11669,7 +11731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="628" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="628" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B628" s="2" t="s">
         <v>86</v>
       </c>
@@ -11686,7 +11748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="629" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="629" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B629" s="2" t="s">
         <v>86</v>
       </c>
@@ -11703,7 +11765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="630" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="630" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B630" s="2" t="s">
         <v>86</v>
       </c>
@@ -11720,7 +11782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="631" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="631" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B631" s="2" t="s">
         <v>86</v>
       </c>
@@ -11737,7 +11799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="632" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="632" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B632" s="2" t="s">
         <v>86</v>
       </c>
@@ -11754,7 +11816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="633" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="633" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B633" s="2" t="s">
         <v>86</v>
       </c>
@@ -11771,7 +11833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="634" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="634" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B634" s="2" t="s">
         <v>86</v>
       </c>
@@ -11788,7 +11850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="635" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="635" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B635" s="2" t="s">
         <v>86</v>
       </c>
@@ -11805,7 +11867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="636" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="636" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B636" s="2" t="s">
         <v>86</v>
       </c>
@@ -11818,11 +11880,14 @@
       <c r="F636" s="2">
         <v>1</v>
       </c>
-      <c r="G636" s="2" t="s">
+      <c r="G636" s="14" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="637" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H636" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="637" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B637" s="2" t="s">
         <v>86</v>
       </c>
@@ -11839,7 +11904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="638" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="638" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B638" s="2" t="s">
         <v>86</v>
       </c>
@@ -11856,7 +11921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="639" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="639" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B639" s="2" t="s">
         <v>86</v>
       </c>
@@ -11873,7 +11938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="640" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="640" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B640" s="2" t="s">
         <v>86</v>
       </c>
@@ -14179,7 +14244,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="785" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="785" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B785" s="2" t="s">
         <v>91</v>
       </c>
@@ -14193,7 +14258,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="786" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="786" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B786" s="2" t="s">
         <v>91</v>
       </c>
@@ -14207,7 +14272,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="787" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="787" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B787" s="2" t="s">
         <v>91</v>
       </c>
@@ -14221,7 +14286,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="788" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="788" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B788" s="2" t="s">
         <v>91</v>
       </c>
@@ -14235,7 +14300,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="789" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="789" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B789" s="2" t="s">
         <v>91</v>
       </c>
@@ -14249,7 +14314,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="790" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="790" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B790" s="2" t="s">
         <v>91</v>
       </c>
@@ -14263,7 +14328,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="791" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="791" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B791" s="2" t="s">
         <v>91</v>
       </c>
@@ -14277,7 +14342,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="792" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="792" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B792" s="2" t="s">
         <v>91</v>
       </c>
@@ -14291,7 +14356,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="793" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="793" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B793" s="2" t="s">
         <v>91</v>
       </c>
@@ -14305,7 +14370,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="794" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="794" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B794" s="2" t="s">
         <v>91</v>
       </c>
@@ -14319,7 +14384,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="795" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="795" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B795" s="2" t="s">
         <v>91</v>
       </c>
@@ -14333,7 +14398,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="796" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="796" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B796" s="2" t="s">
         <v>91</v>
       </c>
@@ -14347,7 +14412,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="797" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="797" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B797" s="2" t="s">
         <v>91</v>
       </c>
@@ -14357,11 +14422,14 @@
       <c r="D797" s="2">
         <v>166</v>
       </c>
-      <c r="G797" s="2" t="s">
+      <c r="G797" s="14" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="798" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H797">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="798" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B798" s="2" t="s">
         <v>91</v>
       </c>
@@ -14371,11 +14439,14 @@
       <c r="D798" s="2">
         <v>167</v>
       </c>
-      <c r="G798" s="2" t="s">
+      <c r="G798" s="14" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="799" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H798">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="799" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B799" s="2" t="s">
         <v>91</v>
       </c>
@@ -14389,7 +14460,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="800" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="800" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B800" s="2" t="s">
         <v>91</v>
       </c>
@@ -14848,7 +14919,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="833" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="833" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B833" s="2" t="s">
         <v>59</v>
       </c>
@@ -14862,7 +14933,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="834" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="834" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B834" s="2" t="s">
         <v>59</v>
       </c>
@@ -14876,7 +14947,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="835" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="835" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B835" s="2" t="s">
         <v>59</v>
       </c>
@@ -14890,7 +14961,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="836" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="836" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B836" s="2" t="s">
         <v>59</v>
       </c>
@@ -14904,7 +14975,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="837" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="837" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B837" s="2" t="s">
         <v>59</v>
       </c>
@@ -14918,7 +14989,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="838" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="838" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B838" s="2" t="s">
         <v>59</v>
       </c>
@@ -14932,7 +15003,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="839" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="839" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B839" s="2" t="s">
         <v>59</v>
       </c>
@@ -14945,11 +15016,14 @@
       <c r="E839" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G839" s="2" t="s">
+      <c r="G839" s="14" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="840" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H839">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="840" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B840" s="2" t="s">
         <v>59</v>
       </c>
@@ -14962,11 +15036,14 @@
       <c r="E840" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G840" s="2" t="s">
+      <c r="G840" s="14" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="841" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H840">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="841" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B841" s="2" t="s">
         <v>59</v>
       </c>
@@ -14979,11 +15056,14 @@
       <c r="E841" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G841" s="2" t="s">
+      <c r="G841" s="14" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="842" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H841">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="842" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B842" s="2" t="s">
         <v>59</v>
       </c>
@@ -14996,11 +15076,14 @@
       <c r="E842" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G842" s="2" t="s">
+      <c r="G842" s="14" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="843" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H842">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="843" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B843" s="2" t="s">
         <v>59</v>
       </c>
@@ -15013,11 +15096,14 @@
       <c r="E843" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G843" s="2" t="s">
+      <c r="G843" s="14" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="844" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H843">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="844" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B844" s="2" t="s">
         <v>59</v>
       </c>
@@ -15030,11 +15116,14 @@
       <c r="E844" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G844" s="2" t="s">
+      <c r="G844" s="14" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="845" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H844">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="845" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B845" s="2" t="s">
         <v>59</v>
       </c>
@@ -15048,7 +15137,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="846" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="846" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B846" s="2" t="s">
         <v>59</v>
       </c>
@@ -15062,7 +15151,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="847" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="847" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B847" s="2" t="s">
         <v>59</v>
       </c>
@@ -15076,7 +15165,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="848" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="848" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B848" s="2" t="s">
         <v>59</v>
       </c>
@@ -15383,7 +15472,7 @@
       <c r="E869" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G869" s="2" t="s">
+      <c r="G869" s="14" t="s">
         <v>61</v>
       </c>
     </row>
@@ -15778,7 +15867,7 @@
       <c r="E897" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G897" s="2" t="s">
+      <c r="G897" s="14" t="s">
         <v>62</v>
       </c>
     </row>
@@ -15795,7 +15884,7 @@
       <c r="E898" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G898" s="2" t="s">
+      <c r="G898" s="14" t="s">
         <v>62</v>
       </c>
     </row>
@@ -15995,7 +16084,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="913" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="913" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B913" s="2" t="s">
         <v>59</v>
       </c>
@@ -16009,7 +16098,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="914" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="914" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B914" s="2" t="s">
         <v>59</v>
       </c>
@@ -16023,7 +16112,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="915" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="915" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B915" s="2" t="s">
         <v>59</v>
       </c>
@@ -16037,7 +16126,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="916" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="916" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B916" s="2" t="s">
         <v>59</v>
       </c>
@@ -16051,7 +16140,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="917" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="917" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B917" s="2" t="s">
         <v>59</v>
       </c>
@@ -16065,7 +16154,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="918" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="918" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B918" s="2" t="s">
         <v>59</v>
       </c>
@@ -16079,7 +16168,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="919" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="919" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B919" s="2" t="s">
         <v>59</v>
       </c>
@@ -16093,7 +16182,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="920" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="920" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B920" s="2" t="s">
         <v>59</v>
       </c>
@@ -16107,7 +16196,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="921" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="921" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B921" s="2" t="s">
         <v>59</v>
       </c>
@@ -16121,7 +16210,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="922" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="922" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B922" s="2" t="s">
         <v>59</v>
       </c>
@@ -16135,7 +16224,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="923" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="923" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B923" s="2" t="s">
         <v>84</v>
       </c>
@@ -16146,7 +16235,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="924" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="924" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B924" s="2" t="s">
         <v>84</v>
       </c>
@@ -16160,7 +16249,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="925" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="925" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B925" s="2" t="s">
         <v>84</v>
       </c>
@@ -16174,7 +16263,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="926" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="926" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B926" s="2" t="s">
         <v>84</v>
       </c>
@@ -16188,7 +16277,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="927" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="927" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B927" s="2" t="s">
         <v>84</v>
       </c>
@@ -16204,11 +16293,14 @@
       <c r="F927" s="2">
         <v>3</v>
       </c>
-      <c r="G927" s="2" t="s">
+      <c r="G927" s="14" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="928" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H927" s="14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="928" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B928" s="2" t="s">
         <v>84</v>
       </c>
@@ -16446,7 +16538,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="945" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="945" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B945" s="2" t="s">
         <v>84</v>
       </c>
@@ -16460,7 +16552,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="946" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="946" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B946" s="2" t="s">
         <v>84</v>
       </c>
@@ -16474,7 +16566,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="947" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="947" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B947" s="2" t="s">
         <v>84</v>
       </c>
@@ -16490,11 +16582,14 @@
       <c r="F947" s="2">
         <v>4</v>
       </c>
-      <c r="G947" s="2" t="s">
+      <c r="G947" s="14" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="948" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H947" s="14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="948" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B948" s="2" t="s">
         <v>84</v>
       </c>
@@ -16507,11 +16602,14 @@
       <c r="E948" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G948" s="2" t="s">
+      <c r="G948" s="14" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="949" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H948">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="949" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B949" s="2" t="s">
         <v>84</v>
       </c>
@@ -16524,11 +16622,14 @@
       <c r="E949" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G949" s="2" t="s">
+      <c r="G949" s="14" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="950" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H949">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="950" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B950" s="2" t="s">
         <v>84</v>
       </c>
@@ -16542,7 +16643,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="951" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="951" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B951" s="2" t="s">
         <v>84</v>
       </c>
@@ -16558,11 +16659,14 @@
       <c r="F951" s="2">
         <v>3</v>
       </c>
-      <c r="G951" s="2" t="s">
+      <c r="G951" s="14" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="952" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H951" s="14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="952" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B952" s="2" t="s">
         <v>84</v>
       </c>
@@ -16576,7 +16680,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="953" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="953" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B953" s="2" t="s">
         <v>84</v>
       </c>
@@ -16590,7 +16694,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="954" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="954" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B954" s="2" t="s">
         <v>84</v>
       </c>
@@ -16604,7 +16708,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="955" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="955" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B955" s="2" t="s">
         <v>84</v>
       </c>
@@ -16618,7 +16722,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="956" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="956" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B956" s="2" t="s">
         <v>84</v>
       </c>
@@ -16632,7 +16736,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="957" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="957" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B957" s="2" t="s">
         <v>84</v>
       </c>
@@ -16648,8 +16752,11 @@
       <c r="F957" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="958" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H957" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="958" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B958" s="2" t="s">
         <v>84</v>
       </c>
@@ -16663,7 +16770,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="959" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="959" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B959" s="2" t="s">
         <v>84</v>
       </c>
@@ -16677,7 +16784,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="960" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="960" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B960" s="2" t="s">
         <v>84</v>
       </c>
@@ -16691,7 +16798,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="961" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="961" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B961" s="2" t="s">
         <v>84</v>
       </c>
@@ -16705,7 +16812,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="962" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="962" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B962" s="2" t="s">
         <v>84</v>
       </c>
@@ -16719,7 +16826,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="963" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="963" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B963" s="2" t="s">
         <v>84</v>
       </c>
@@ -16733,7 +16840,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="964" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="964" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B964" s="2" t="s">
         <v>84</v>
       </c>
@@ -16747,7 +16854,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="965" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="965" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B965" s="2" t="s">
         <v>84</v>
       </c>
@@ -16761,18 +16868,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="966" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="966" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B966" s="2" t="s">
         <v>84</v>
       </c>
       <c r="D966" s="2">
         <v>144</v>
       </c>
-      <c r="G966" s="2" t="s">
+      <c r="G966" s="14" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="967" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H966">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="967" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B967" s="2" t="s">
         <v>84</v>
       </c>
@@ -16786,7 +16896,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="968" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="968" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B968" s="2" t="s">
         <v>84</v>
       </c>
@@ -16800,7 +16910,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="969" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="969" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B969" s="2" t="s">
         <v>84</v>
       </c>
@@ -16814,7 +16924,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="970" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="970" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B970" s="2" t="s">
         <v>84</v>
       </c>
@@ -16828,7 +16938,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="971" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="971" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B971" s="2" t="s">
         <v>84</v>
       </c>
@@ -16842,7 +16952,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="972" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="972" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B972" s="2" t="s">
         <v>84</v>
       </c>
@@ -16856,7 +16966,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="973" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="973" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B973" s="2" t="s">
         <v>84</v>
       </c>
@@ -16870,7 +16980,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="974" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="974" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B974" s="2" t="s">
         <v>84</v>
       </c>
@@ -16884,7 +16994,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="975" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="975" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B975" s="2" t="s">
         <v>84</v>
       </c>
@@ -16898,7 +17008,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="976" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="976" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B976" s="2" t="s">
         <v>84</v>
       </c>
@@ -16912,7 +17022,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="977" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="977" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B977" s="2" t="s">
         <v>84</v>
       </c>
@@ -16926,7 +17036,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="978" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="978" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B978" s="2" t="s">
         <v>84</v>
       </c>
@@ -16940,7 +17050,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="979" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="979" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B979" s="2" t="s">
         <v>84</v>
       </c>
@@ -16954,7 +17064,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="980" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="980" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B980" s="2" t="s">
         <v>84</v>
       </c>
@@ -16968,7 +17078,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="981" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="981" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B981" s="2" t="s">
         <v>84</v>
       </c>
@@ -16982,7 +17092,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="982" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="982" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B982" s="2" t="s">
         <v>84</v>
       </c>
@@ -16996,7 +17106,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="983" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="983" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B983" s="2" t="s">
         <v>84</v>
       </c>
@@ -17010,7 +17120,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="984" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="984" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B984" s="2" t="s">
         <v>84</v>
       </c>
@@ -17026,11 +17136,14 @@
       <c r="F984" s="2">
         <v>3</v>
       </c>
-      <c r="G984" s="2" t="s">
+      <c r="G984" s="14" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="985" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H984" s="14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="985" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B985" s="2" t="s">
         <v>84</v>
       </c>
@@ -17044,7 +17157,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="986" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="986" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B986" s="2" t="s">
         <v>84</v>
       </c>
@@ -17060,8 +17173,11 @@
       <c r="F986" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="987" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H986" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="987" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B987" s="2" t="s">
         <v>84</v>
       </c>
@@ -17075,7 +17191,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="988" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="988" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B988" s="2" t="s">
         <v>84</v>
       </c>
@@ -17089,7 +17205,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="989" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="989" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B989" s="2" t="s">
         <v>84</v>
       </c>
@@ -17103,7 +17219,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="990" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="990" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B990" s="2" t="s">
         <v>84</v>
       </c>
@@ -17117,7 +17233,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="991" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="991" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B991" s="2" t="s">
         <v>84</v>
       </c>
@@ -17131,7 +17247,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="992" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="992" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B992" s="2" t="s">
         <v>84</v>
       </c>
@@ -17158,7 +17274,7 @@
         <v>41</v>
       </c>
       <c r="F993" s="6"/>
-      <c r="G993" s="6"/>
+      <c r="G993" s="13"/>
     </row>
     <row r="994" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B994" s="2" t="s">
@@ -18490,7 +18606,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="1089" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="1089" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1089" s="2" t="s">
         <v>89</v>
       </c>
@@ -18504,7 +18620,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="1090" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="1090" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1090" s="2" t="s">
         <v>89</v>
       </c>
@@ -18518,7 +18634,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="1091" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="1091" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1091" s="2" t="s">
         <v>89</v>
       </c>
@@ -18532,7 +18648,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="1092" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="1092" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1092" s="2" t="s">
         <v>89</v>
       </c>
@@ -18546,7 +18662,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="1093" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="1093" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1093" s="2" t="s">
         <v>89</v>
       </c>
@@ -18560,7 +18676,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="1094" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="1094" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1094" s="2" t="s">
         <v>89</v>
       </c>
@@ -18574,7 +18690,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="1095" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="1095" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1095" s="2" t="s">
         <v>89</v>
       </c>
@@ -18588,7 +18704,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="1096" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="1096" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1096" s="2" t="s">
         <v>89</v>
       </c>
@@ -18601,11 +18717,11 @@
       <c r="E1096" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G1096" s="2" t="s">
+      <c r="G1096" s="14" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="1097" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="1097" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1097" s="2" t="s">
         <v>89</v>
       </c>
@@ -18618,11 +18734,11 @@
       <c r="E1097" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G1097" s="2" t="s">
+      <c r="G1097" s="14" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="1098" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="1098" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1098" s="2" t="s">
         <v>89</v>
       </c>
@@ -18636,7 +18752,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="1099" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="1099" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1099" s="2" t="s">
         <v>89</v>
       </c>
@@ -18650,7 +18766,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="1100" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="1100" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1100" s="2" t="s">
         <v>89</v>
       </c>
@@ -18664,7 +18780,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="1101" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="1101" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1101" s="2" t="s">
         <v>89</v>
       </c>
@@ -18678,7 +18794,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="1102" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="1102" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1102" s="2" t="s">
         <v>89</v>
       </c>
@@ -18692,7 +18808,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="1103" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="1103" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1103" s="2" t="s">
         <v>89</v>
       </c>
@@ -18706,7 +18822,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="1104" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="1104" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1104" s="2" t="s">
         <v>89</v>
       </c>
@@ -18719,11 +18835,14 @@
       <c r="E1104" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G1104" s="2" t="s">
+      <c r="G1104" s="14" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="1105" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H1104">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1105" s="2" t="s">
         <v>89</v>
       </c>
@@ -18736,11 +18855,14 @@
       <c r="E1105" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G1105" s="2" t="s">
+      <c r="G1105" s="14" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="1106" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H1105">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1106" s="2" t="s">
         <v>89</v>
       </c>
@@ -18754,7 +18876,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1107" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="1107" spans="1:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1107" s="2" t="s">
         <v>89</v>
       </c>
@@ -18768,7 +18890,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="1108" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="1108" spans="1:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1108" s="2" t="s">
         <v>89</v>
       </c>
@@ -18782,7 +18904,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1109" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="1109" spans="1:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1109" s="2" t="s">
         <v>89</v>
       </c>
@@ -18796,7 +18918,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="1110" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="1110" spans="1:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1110" s="2" t="s">
         <v>89</v>
       </c>
@@ -18810,7 +18932,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1111" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="1111" spans="1:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1111" s="2" t="s">
         <v>89</v>
       </c>
@@ -18824,7 +18946,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="1112" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="1112" spans="1:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1112" s="2" t="s">
         <v>89</v>
       </c>
@@ -18837,11 +18959,14 @@
       <c r="E1112" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G1112" s="2" t="s">
+      <c r="G1112" s="14" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="1113" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H1112">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1113" s="2" t="s">
         <v>89</v>
       </c>
@@ -18854,11 +18979,14 @@
       <c r="E1113" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G1113" s="2" t="s">
+      <c r="G1113" s="14" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="1114" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H1113">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A1114" s="6"/>
       <c r="B1114" s="6" t="s">
         <v>89</v>
@@ -18871,9 +18999,9 @@
         <v>41</v>
       </c>
       <c r="F1114" s="6"/>
-      <c r="G1114" s="6"/>
-    </row>
-    <row r="1115" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="G1114" s="13"/>
+    </row>
+    <row r="1115" spans="1:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1115" s="2" t="s">
         <v>76</v>
       </c>
@@ -18884,7 +19012,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="1116" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="1116" spans="1:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1116" s="2" t="s">
         <v>76</v>
       </c>
@@ -18898,7 +19026,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1117" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="1117" spans="1:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1117" s="2" t="s">
         <v>76</v>
       </c>
@@ -18912,7 +19040,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="1118" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="1118" spans="1:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1118" s="2" t="s">
         <v>76</v>
       </c>
@@ -18926,7 +19054,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1119" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="1119" spans="1:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1119" s="2" t="s">
         <v>76</v>
       </c>
@@ -18940,7 +19068,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="1120" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="1120" spans="1:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1120" s="2" t="s">
         <v>76</v>
       </c>
@@ -20295,7 +20423,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1217" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="1217" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1217" s="2" t="s">
         <v>85</v>
       </c>
@@ -20309,7 +20437,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="1218" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="1218" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1218" s="2" t="s">
         <v>85</v>
       </c>
@@ -20325,11 +20453,14 @@
       <c r="F1218" s="2">
         <v>2</v>
       </c>
-      <c r="G1218" s="2" t="s">
+      <c r="G1218" s="14" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="1219" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H1218" s="14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1219" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1219" s="2" t="s">
         <v>85</v>
       </c>
@@ -20343,7 +20474,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="1220" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="1220" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1220" s="2" t="s">
         <v>85</v>
       </c>
@@ -20359,11 +20490,14 @@
       <c r="F1220" s="2">
         <v>2</v>
       </c>
-      <c r="G1220" s="2" t="s">
+      <c r="G1220" s="14" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="1221" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H1220" s="14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1221" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1221" s="2" t="s">
         <v>85</v>
       </c>
@@ -20377,7 +20511,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1222" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="1222" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1222" s="2" t="s">
         <v>85</v>
       </c>
@@ -20393,8 +20527,11 @@
       <c r="F1222" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="1223" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H1222" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1223" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1223" s="2" t="s">
         <v>85</v>
       </c>
@@ -20408,7 +20545,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="1224" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="1224" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1224" s="2" t="s">
         <v>85</v>
       </c>
@@ -20422,7 +20559,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="1225" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="1225" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1225" s="2" t="s">
         <v>85</v>
       </c>
@@ -20436,7 +20573,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="1226" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="1226" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1226" s="2" t="s">
         <v>85</v>
       </c>
@@ -20450,7 +20587,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1227" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="1227" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1227" s="2" t="s">
         <v>85</v>
       </c>
@@ -20464,7 +20601,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1228" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="1228" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1228" s="2" t="s">
         <v>85</v>
       </c>
@@ -20478,7 +20615,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="1229" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="1229" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1229" s="2" t="s">
         <v>85</v>
       </c>
@@ -20492,7 +20629,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1230" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="1230" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1230" s="2" t="s">
         <v>85</v>
       </c>
@@ -20506,7 +20643,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="1231" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="1231" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1231" s="2" t="s">
         <v>85</v>
       </c>
@@ -20520,7 +20657,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="1232" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="1232" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1232" s="2" t="s">
         <v>85</v>
       </c>
@@ -20659,7 +20796,7 @@
       <c r="E1241" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1241" s="2" t="s">
+      <c r="G1241" s="14" t="s">
         <v>79</v>
       </c>
     </row>
@@ -20761,7 +20898,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1249" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="1249" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1249" s="2" t="s">
         <v>85</v>
       </c>
@@ -20775,7 +20912,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="1250" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="1250" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1250" s="2" t="s">
         <v>85</v>
       </c>
@@ -20789,7 +20926,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1251" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="1251" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1251" s="2" t="s">
         <v>85</v>
       </c>
@@ -20803,7 +20940,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="1252" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="1252" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1252" s="2" t="s">
         <v>85</v>
       </c>
@@ -20817,7 +20954,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1253" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="1253" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1253" s="2" t="s">
         <v>85</v>
       </c>
@@ -20830,11 +20967,11 @@
       <c r="E1253" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G1253" s="2" t="s">
+      <c r="G1253" s="14" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="1254" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="1254" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1254" s="2" t="s">
         <v>85</v>
       </c>
@@ -20848,7 +20985,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1255" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="1255" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1255" s="2" t="s">
         <v>85</v>
       </c>
@@ -20862,7 +20999,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1256" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="1256" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1256" s="2" t="s">
         <v>85</v>
       </c>
@@ -20876,7 +21013,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="1257" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="1257" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1257" s="2" t="s">
         <v>85</v>
       </c>
@@ -20890,7 +21027,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="1258" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="1258" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1258" s="2" t="s">
         <v>85</v>
       </c>
@@ -20904,7 +21041,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="1259" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="1259" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1259" s="2" t="s">
         <v>85</v>
       </c>
@@ -20918,7 +21055,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="1260" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="1260" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1260" s="2" t="s">
         <v>85</v>
       </c>
@@ -20931,11 +21068,14 @@
       <c r="E1260" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G1260" s="2" t="s">
+      <c r="G1260" s="14" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="1261" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H1260">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1261" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1261" s="2" t="s">
         <v>85</v>
       </c>
@@ -20949,7 +21089,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="1262" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="1262" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1262" s="2" t="s">
         <v>85</v>
       </c>
@@ -20963,7 +21103,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1263" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="1263" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1263" s="2" t="s">
         <v>85</v>
       </c>
@@ -20977,7 +21117,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="1264" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="1264" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1264" s="2" t="s">
         <v>85</v>
       </c>
@@ -21215,7 +21355,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="1281" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="1281" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1281" s="2" t="s">
         <v>85</v>
       </c>
@@ -21229,7 +21369,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1282" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="1282" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1282" s="2" t="s">
         <v>85</v>
       </c>
@@ -21243,7 +21383,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="1283" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="1283" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1283" s="2" t="s">
         <v>85</v>
       </c>
@@ -21257,7 +21397,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1284" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="1284" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1284" s="2" t="s">
         <v>85</v>
       </c>
@@ -21271,7 +21411,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="1285" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="1285" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1285" s="2" t="s">
         <v>85</v>
       </c>
@@ -21285,7 +21425,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1286" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="1286" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1286" s="2" t="s">
         <v>85</v>
       </c>
@@ -21299,7 +21439,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="1287" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="1287" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1287" s="2" t="s">
         <v>85</v>
       </c>
@@ -21313,7 +21453,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1288" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="1288" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1288" s="2" t="s">
         <v>85</v>
       </c>
@@ -21327,7 +21467,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="1289" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="1289" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1289" s="2" t="s">
         <v>85</v>
       </c>
@@ -21341,7 +21481,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1290" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="1290" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1290" s="2" t="s">
         <v>85</v>
       </c>
@@ -21355,51 +21495,63 @@
         <v>32</v>
       </c>
     </row>
-    <row r="1291" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="1291" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1291" s="2" t="s">
         <v>85</v>
       </c>
       <c r="D1291" s="2">
         <v>200</v>
       </c>
-      <c r="G1291" s="2" t="s">
+      <c r="G1291" s="14" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="1292" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H1291">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1292" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1292" s="2" t="s">
         <v>85</v>
       </c>
       <c r="D1292" s="2">
         <v>201</v>
       </c>
-      <c r="G1292" s="2" t="s">
+      <c r="G1292" s="14" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="1293" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H1292">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1293" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1293" s="2" t="s">
         <v>85</v>
       </c>
       <c r="D1293" s="2">
         <v>202</v>
       </c>
-      <c r="G1293" s="2" t="s">
+      <c r="G1293" s="14" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="1294" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H1293">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1294" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1294" s="2" t="s">
         <v>85</v>
       </c>
       <c r="D1294" s="2">
         <v>203</v>
       </c>
-      <c r="G1294" s="2" t="s">
+      <c r="G1294" s="14" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="1295" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H1294">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1295" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1295" s="2" t="s">
         <v>85</v>
       </c>
@@ -21413,7 +21565,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="1296" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="1296" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1296" s="2" t="s">
         <v>85</v>
       </c>
@@ -21563,7 +21715,7 @@
         <v>45</v>
       </c>
       <c r="F1306" s="10"/>
-      <c r="G1306" s="10"/>
+      <c r="G1306" s="17"/>
       <c r="H1306" s="10"/>
       <c r="I1306" s="10"/>
       <c r="J1306" s="10"/>
@@ -21671,7 +21823,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1313" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="1313" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1313" s="2" t="s">
         <v>90</v>
       </c>
@@ -21685,7 +21837,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="1314" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="1314" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1314" s="2" t="s">
         <v>90</v>
       </c>
@@ -21699,7 +21851,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="1315" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="1315" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1315" s="2" t="s">
         <v>90</v>
       </c>
@@ -21713,7 +21865,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="1316" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="1316" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1316" s="2" t="s">
         <v>90</v>
       </c>
@@ -21727,7 +21879,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="1317" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="1317" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1317" s="2" t="s">
         <v>90</v>
       </c>
@@ -21737,8 +21889,11 @@
       <c r="F1317" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="1318" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H1317">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1318" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1318" s="2" t="s">
         <v>90</v>
       </c>
@@ -21748,8 +21903,11 @@
       <c r="F1318" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="1319" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H1318">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1319" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1319" s="2" t="s">
         <v>90</v>
       </c>
@@ -21763,7 +21921,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="1320" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="1320" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1320" s="2" t="s">
         <v>90</v>
       </c>
@@ -21777,7 +21935,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="1321" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="1321" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1321" s="2" t="s">
         <v>90</v>
       </c>
@@ -21791,7 +21949,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="1322" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="1322" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1322" s="2" t="s">
         <v>90</v>
       </c>
@@ -21805,7 +21963,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="1323" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="1323" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1323" s="2" t="s">
         <v>90</v>
       </c>
@@ -21819,7 +21977,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="1324" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="1324" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1324" s="2" t="s">
         <v>90</v>
       </c>
@@ -21833,7 +21991,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="1325" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="1325" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1325" s="2" t="s">
         <v>90</v>
       </c>
@@ -21847,7 +22005,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="1326" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="1326" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1326" s="2" t="s">
         <v>90</v>
       </c>
@@ -21861,7 +22019,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="1327" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="1327" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1327" s="2" t="s">
         <v>90</v>
       </c>
@@ -21875,7 +22033,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1328" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="1328" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1328" s="2" t="s">
         <v>90</v>
       </c>
@@ -22294,7 +22452,7 @@
       <c r="E1357" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G1357" s="2" t="s">
+      <c r="G1357" s="14" t="s">
         <v>81</v>
       </c>
     </row>
@@ -22632,7 +22790,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AC1381" xr:uid="{72D9BBEF-D41B-3943-88E3-081E080D25A5}"/>
   <mergeCells count="1">
     <mergeCell ref="G109:G110"/>
   </mergeCells>

--- a/raw_ts_data/fd/fd12_ts2.xlsx
+++ b/raw_ts_data/fd/fd12_ts2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ncw02\Downloads\IGEA\raw_ts_data\fd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52DE88F7-C3AF-4E46-BA5B-B4AF2F7D9A64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E292D2DF-7696-48DD-85DD-81E29AE8A9B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="1884" windowWidth="17280" windowHeight="8964" xr2:uid="{E68C062C-7D11-714A-B9EB-02BD676A21BD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E68C062C-7D11-714A-B9EB-02BD676A21BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Total Station 2 (Grizz)" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3191" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3197" uniqueCount="112">
   <si>
     <t>Reach</t>
   </si>
@@ -370,12 +370,18 @@
   <si>
     <t>TP05</t>
   </si>
+  <si>
+    <t xml:space="preserve">12/12/22 - manually changed Xsection, entered wrong as X5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12/12/22 - manually changed Xsection, entered wrong as X6 </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -403,8 +409,21 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -426,6 +445,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,7 +494,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -484,12 +509,16 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -810,8 +839,8 @@
   <dimension ref="A1:AC1554"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A240" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1551" sqref="H1551"/>
+      <pane ySplit="1" topLeftCell="A870" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G882" sqref="G882"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.21875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -819,52 +848,52 @@
     <col min="7" max="7" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="14" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="13"/>
-      <c r="B1" s="13" t="s">
+    <row r="1" spans="1:29" s="12" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="11"/>
+      <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="13" t="s">
+      <c r="C1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
-      <c r="X1" s="13"/>
-      <c r="Y1" s="13"/>
-      <c r="Z1" s="13"/>
-      <c r="AA1" s="13"/>
-      <c r="AB1" s="13"/>
-      <c r="AC1" s="13"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="11"/>
+      <c r="AC1" s="11"/>
     </row>
     <row r="2" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
@@ -2853,7 +2882,7 @@
       <c r="F109" s="1">
         <v>1</v>
       </c>
-      <c r="G109" s="10" t="s">
+      <c r="G109" s="14" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2873,7 +2902,7 @@
       <c r="F110" s="1">
         <v>1</v>
       </c>
-      <c r="G110" s="11"/>
+      <c r="G110" s="15"/>
     </row>
     <row r="111" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B111" s="1" t="s">
@@ -15586,41 +15615,47 @@
       <c r="B873" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C873" s="1">
-        <v>5</v>
-      </c>
-      <c r="D873" s="1">
+      <c r="C873" s="17">
+        <v>4</v>
+      </c>
+      <c r="D873" s="17">
         <v>172</v>
       </c>
-      <c r="E873" s="1" t="s">
+      <c r="E873" s="17" t="s">
         <v>11</v>
+      </c>
+      <c r="G873" s="18" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="874" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B874" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C874" s="1">
-        <v>5</v>
-      </c>
-      <c r="D874" s="1">
+      <c r="C874" s="17">
+        <v>4</v>
+      </c>
+      <c r="D874" s="17">
         <v>173</v>
       </c>
-      <c r="E874" s="1" t="s">
+      <c r="E874" s="17" t="s">
         <v>12</v>
+      </c>
+      <c r="G874" s="18" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="875" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B875" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C875" s="1">
-        <v>5</v>
-      </c>
-      <c r="D875" s="1">
+      <c r="C875" s="16">
+        <v>5</v>
+      </c>
+      <c r="D875" s="16">
         <v>174</v>
       </c>
-      <c r="E875" s="1" t="s">
+      <c r="E875" s="16" t="s">
         <v>11</v>
       </c>
     </row>
@@ -15628,13 +15663,13 @@
       <c r="B876" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C876" s="1">
-        <v>5</v>
-      </c>
-      <c r="D876" s="1">
+      <c r="C876" s="16">
+        <v>5</v>
+      </c>
+      <c r="D876" s="16">
         <v>175</v>
       </c>
-      <c r="E876" s="1" t="s">
+      <c r="E876" s="16" t="s">
         <v>12</v>
       </c>
     </row>
@@ -15642,13 +15677,13 @@
       <c r="B877" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C877" s="1">
-        <v>6</v>
-      </c>
-      <c r="D877" s="1">
+      <c r="C877" s="16">
+        <v>5</v>
+      </c>
+      <c r="D877" s="16">
         <v>176</v>
       </c>
-      <c r="E877" s="1" t="s">
+      <c r="E877" s="16" t="s">
         <v>9</v>
       </c>
     </row>
@@ -15656,13 +15691,13 @@
       <c r="B878" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C878" s="1">
-        <v>6</v>
-      </c>
-      <c r="D878" s="1">
+      <c r="C878" s="16">
+        <v>5</v>
+      </c>
+      <c r="D878" s="16">
         <v>177</v>
       </c>
-      <c r="E878" s="1" t="s">
+      <c r="E878" s="16" t="s">
         <v>10</v>
       </c>
     </row>
@@ -15670,115 +15705,127 @@
       <c r="B879" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C879" s="1">
-        <v>5</v>
-      </c>
-      <c r="D879" s="1">
+      <c r="C879" s="19">
+        <v>6</v>
+      </c>
+      <c r="D879" s="19">
         <v>178</v>
       </c>
-      <c r="E879" s="1" t="s">
-        <v>6</v>
+      <c r="E879" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G879" s="18" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="880" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B880" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C880" s="1">
-        <v>5</v>
-      </c>
-      <c r="D880" s="1">
+      <c r="C880" s="19">
+        <v>6</v>
+      </c>
+      <c r="D880" s="19">
         <v>179</v>
       </c>
-      <c r="E880" s="1" t="s">
+      <c r="E880" s="19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="881" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="G880" s="18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="881" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B881" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C881" s="1">
-        <v>6</v>
-      </c>
-      <c r="D881" s="1">
+      <c r="C881" s="19">
+        <v>5</v>
+      </c>
+      <c r="D881" s="19">
         <v>180</v>
       </c>
-      <c r="E881" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="882" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="E881" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G881" s="18" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="882" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B882" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C882" s="1">
-        <v>6</v>
-      </c>
-      <c r="D882" s="1">
+      <c r="C882" s="19">
+        <v>5</v>
+      </c>
+      <c r="D882" s="19">
         <v>181</v>
       </c>
-      <c r="E882" s="1" t="s">
+      <c r="E882" s="19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="883" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="G882" s="18" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="883" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B883" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C883" s="1">
-        <v>6</v>
-      </c>
-      <c r="D883" s="1">
+      <c r="C883" s="16">
+        <v>6</v>
+      </c>
+      <c r="D883" s="16">
         <v>182</v>
       </c>
-      <c r="E883" s="1" t="s">
+      <c r="E883" s="16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="884" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="884" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B884" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C884" s="1">
-        <v>6</v>
-      </c>
-      <c r="D884" s="1">
+      <c r="C884" s="16">
+        <v>6</v>
+      </c>
+      <c r="D884" s="16">
         <v>183</v>
       </c>
-      <c r="E884" s="1" t="s">
+      <c r="E884" s="16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="885" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="885" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B885" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C885" s="1">
-        <v>6</v>
-      </c>
-      <c r="D885" s="1">
+      <c r="C885" s="16">
+        <v>6</v>
+      </c>
+      <c r="D885" s="16">
         <v>184</v>
       </c>
-      <c r="E885" s="1" t="s">
+      <c r="E885" s="16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="886" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="886" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B886" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C886" s="1">
-        <v>6</v>
-      </c>
-      <c r="D886" s="1">
+      <c r="C886" s="16">
+        <v>6</v>
+      </c>
+      <c r="D886" s="16">
         <v>185</v>
       </c>
-      <c r="E886" s="1" t="s">
+      <c r="E886" s="16" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="887" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="887" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B887" s="1" t="s">
         <v>59</v>
       </c>
@@ -15792,7 +15839,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="888" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="888" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B888" s="1" t="s">
         <v>59</v>
       </c>
@@ -15806,7 +15853,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="889" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="889" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B889" s="1" t="s">
         <v>59</v>
       </c>
@@ -15820,7 +15867,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="890" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="890" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B890" s="1" t="s">
         <v>59</v>
       </c>
@@ -15834,7 +15881,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="891" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="891" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B891" s="1" t="s">
         <v>59</v>
       </c>
@@ -15848,7 +15895,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="892" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="892" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B892" s="1" t="s">
         <v>59</v>
       </c>
@@ -15862,7 +15909,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="893" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="893" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B893" s="1" t="s">
         <v>59</v>
       </c>
@@ -15876,7 +15923,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="894" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="894" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B894" s="1" t="s">
         <v>59</v>
       </c>
@@ -15890,7 +15937,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="895" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="895" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B895" s="1" t="s">
         <v>59</v>
       </c>
@@ -15904,7 +15951,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="896" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="896" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B896" s="1" t="s">
         <v>59</v>
       </c>
@@ -22842,14 +22889,14 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1381" spans="2:8" s="12" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1381" s="15" t="s">
+    <row r="1381" spans="2:8" s="10" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1381" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="D1381" s="15">
+      <c r="D1381" s="13">
         <v>176</v>
       </c>
-      <c r="E1381" s="15" t="s">
+      <c r="E1381" s="13" t="s">
         <v>41</v>
       </c>
     </row>
@@ -24101,20 +24148,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1454" spans="2:7" s="12" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1454" s="12" t="s">
+    <row r="1454" spans="2:7" s="10" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1454" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="C1454" s="12">
+      <c r="C1454" s="10">
         <v>3</v>
       </c>
-      <c r="D1454" s="12">
+      <c r="D1454" s="10">
         <v>177</v>
       </c>
-      <c r="E1454" s="12" t="s">
+      <c r="E1454" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="F1454" s="12">
+      <c r="F1454" s="10">
         <v>1</v>
       </c>
     </row>
